--- a/AmazonReviewResult.xlsx
+++ b/AmazonReviewResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="292">
   <si>
     <t>title</t>
   </si>
@@ -28,847 +28,871 @@
     <t>review</t>
   </si>
   <si>
-    <t>LG Uled not even close to the LG Oled</t>
-  </si>
-  <si>
-    <t>No hbo max is only con (updatev there was more)</t>
-  </si>
-  <si>
-    <t>LOVED the TV for a week....until it stopped working properly!</t>
-  </si>
-  <si>
-    <t>What a TV for the bedroom</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>TROUBLE WITH A MANUAL THAT DOES NOT EXPLAIN MORE THINGS IN DEPTH</t>
-  </si>
-  <si>
-    <t>Shattered</t>
-  </si>
-  <si>
-    <t>crisp clean images, very light weight</t>
-  </si>
-  <si>
-    <t>Whats not to like?</t>
-  </si>
-  <si>
-    <t>Cannot connect to update apps so doesn't work at all- Absolutely Useless!</t>
-  </si>
-  <si>
-    <t>THIS IS ALL YOU NEED</t>
-  </si>
-  <si>
-    <t>Don't buy this TV</t>
-  </si>
-  <si>
-    <t>Alexa, Other Apps Don't Work</t>
-  </si>
-  <si>
-    <t>Great valve</t>
-  </si>
-  <si>
-    <t>At best acceptable monitor</t>
-  </si>
-  <si>
-    <t>Don’t Buy TV’S from Amazon</t>
-  </si>
-  <si>
-    <t>The wifi will disconnect do not buy if you want to use this for subscriptions</t>
-  </si>
-  <si>
-    <t>Doesn’t work</t>
-  </si>
-  <si>
-    <t>NOT 55 inches</t>
-  </si>
-  <si>
-    <t>Poop!</t>
-  </si>
-  <si>
-    <t>Chances are, it will be broken</t>
-  </si>
-  <si>
-    <t>Software Experience is Terrible</t>
-  </si>
-  <si>
-    <t>Meh</t>
-  </si>
-  <si>
-    <t>Great smaller size Smart TV</t>
-  </si>
-  <si>
-    <t>Pretty Good Tv</t>
-  </si>
-  <si>
-    <t>Got Apps!?</t>
-  </si>
-  <si>
-    <t>Great tv, terrible remote.</t>
-  </si>
-  <si>
-    <t>Everyday is a test - LG earned an F today</t>
-  </si>
-  <si>
-    <t>TV Broke After 3 Weeks</t>
-  </si>
-  <si>
-    <t>Easy to set up, color is amazing.</t>
-  </si>
-  <si>
-    <t>Great value!</t>
-  </si>
-  <si>
-    <t>LG Makes a good, reliable LED Smart TV</t>
-  </si>
-  <si>
-    <t>“A problem developed “</t>
-  </si>
-  <si>
-    <t>Nothing works</t>
-  </si>
-  <si>
-    <t>DO NOT BUY THIS TV!!!!!</t>
-  </si>
-  <si>
-    <t>Awesome Television!</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Doesn't support a lot of apps. Make sure you check before purchase.</t>
-  </si>
-  <si>
-    <t>TV Was delivered at 4:30am in the morning!</t>
-  </si>
-  <si>
-    <t>Great Picture !!!</t>
-  </si>
-  <si>
-    <t>Super Great TV.</t>
-  </si>
-  <si>
-    <t>Good tv but sticker residue issue</t>
-  </si>
-  <si>
-    <t>Streaming services are not functioning</t>
-  </si>
-  <si>
-    <t>Ordered twice both broke</t>
-  </si>
-  <si>
-    <t>dissapointment</t>
-  </si>
-  <si>
-    <t>WiFi</t>
-  </si>
-  <si>
-    <t>smart tv</t>
-  </si>
-  <si>
-    <t>The built in LG guide is amazing.</t>
-  </si>
-  <si>
-    <t>Initial television arrived with a shattered screen</t>
-  </si>
-  <si>
-    <t>TV Quit showing screen in 3 months.</t>
-  </si>
-  <si>
-    <t>Previous purchases</t>
-  </si>
-  <si>
-    <t>2 people to handle it</t>
-  </si>
-  <si>
-    <t>Useless tv - don't purchase this</t>
-  </si>
-  <si>
-    <t>Should Have Bought A Samsung</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Review: LG 43UP8000PUA Alexa Built-in 43" 4K Smart UHD TV</t>
-  </si>
-  <si>
-    <t>A Lot of TV For The Money</t>
-  </si>
-  <si>
-    <t>Love this TV</t>
-  </si>
-  <si>
-    <t>Screen cracked</t>
-  </si>
-  <si>
-    <t>Excellent TV</t>
-  </si>
-  <si>
-    <t>Great picture! Good sound. Easy set up.</t>
-  </si>
-  <si>
-    <t>Image ghosting</t>
-  </si>
-  <si>
-    <t>Great Picture</t>
-  </si>
-  <si>
-    <t>Outstanding TV!</t>
-  </si>
-  <si>
-    <t>buen tv</t>
-  </si>
-  <si>
-    <t>Very good buy</t>
-  </si>
-  <si>
-    <t>SUPERIOR FROM ANY COMPETITION TV'S</t>
-  </si>
-  <si>
-    <t>It's awsome!!!</t>
-  </si>
-  <si>
-    <t>Everything is bad</t>
-  </si>
-  <si>
-    <t>Interface is bonkers</t>
-  </si>
-  <si>
-    <t>Love it</t>
-  </si>
-  <si>
-    <t>Beautiful</t>
-  </si>
-  <si>
-    <t>Good TV Not the best on the market</t>
-  </si>
-  <si>
-    <t>Remote issues</t>
-  </si>
-  <si>
-    <t>Takes some learning time</t>
-  </si>
-  <si>
-    <t>Really love my new TV. The sound is wonderful.</t>
-  </si>
-  <si>
-    <t>I like it</t>
-  </si>
-  <si>
-    <t>For the Price point, quality and size; it delivers</t>
-  </si>
-  <si>
-    <t>Snafu</t>
-  </si>
-  <si>
-    <t>Awesome 👌</t>
-  </si>
-  <si>
-    <t>Clear and Convenient</t>
-  </si>
-  <si>
-    <t>Worst Smart TV ever..  do not buy..  Not user friendly or smart home friendly..</t>
-  </si>
-  <si>
-    <t>1st Class product!!!</t>
-  </si>
-  <si>
-    <t>Great deal for the price and solid picture quality!</t>
-  </si>
-  <si>
-    <t>Nice good picture</t>
-  </si>
-  <si>
-    <t>Arrived with busted TV screen… TV was ruined could not use it</t>
-  </si>
-  <si>
-    <t>Nice TV</t>
-  </si>
-  <si>
-    <t>Great for my den! Easy to assemble, and install !</t>
+    <t>Best TV I Have Ever Owned, Incredible Picture Quality!!</t>
+  </si>
+  <si>
+    <t>Stunning picture, just make sure you have a speaker</t>
+  </si>
+  <si>
+    <t>FAIURE in human engineering</t>
+  </si>
+  <si>
+    <t>Dead on arrival</t>
+  </si>
+  <si>
+    <t>HD is brilliant, 4K is VERY VERY DIM.  unviewable</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>Quality picture and sound-remote not easy to understand with icons only.</t>
+  </si>
+  <si>
+    <t>Love the Samsung QLED!</t>
+  </si>
+  <si>
+    <t>Early Review: a nice 75 inch set so far</t>
+  </si>
+  <si>
+    <t>No mounting bolts</t>
+  </si>
+  <si>
+    <t>Jus.....WOW!</t>
+  </si>
+  <si>
+    <t>Broken sound card</t>
+  </si>
+  <si>
+    <t>4.75 of 5 due to remote control</t>
+  </si>
+  <si>
+    <t>An honest review</t>
+  </si>
+  <si>
+    <t>Definitely worth it.</t>
+  </si>
+  <si>
+    <t>Problem with YouTube TV Application</t>
+  </si>
+  <si>
+    <t>TV got stuck in an inescapable boot-loop - had to be returned</t>
+  </si>
+  <si>
+    <t>Poor picture, TV missing the very necessary audio output connection for my hearing aids.</t>
+  </si>
+  <si>
+    <t>An Honest Review</t>
+  </si>
+  <si>
+    <t>They’ve taken away crucial user controls</t>
+  </si>
+  <si>
+    <t>Great price</t>
+  </si>
+  <si>
+    <t>2nd Purchase only Bigger!</t>
+  </si>
+  <si>
+    <t>Just awful - garbage tv</t>
+  </si>
+  <si>
+    <t>Rapid and on time delivery from Amazon were amazing!</t>
+  </si>
+  <si>
+    <t>Great looking TV. Jury still out on display quality.</t>
+  </si>
+  <si>
+    <t>I regret this purchase</t>
+  </si>
+  <si>
+    <t>SET UP WOULD NOT WORK</t>
+  </si>
+  <si>
+    <t>Samsung has devolved into an arrogant and bad Sony clone</t>
+  </si>
+  <si>
+    <t>Useless stand and infuriating user experience for the first TV I've ever smashed... and it felt good</t>
+  </si>
+  <si>
+    <t>THERE IS NO FILM OVER TV!!</t>
+  </si>
+  <si>
+    <t>Very sad audio output</t>
+  </si>
+  <si>
+    <t>Having to adjust picture is a major pain.</t>
+  </si>
+  <si>
+    <t>Nice TV.</t>
+  </si>
+  <si>
+    <t>Don't gift this tv</t>
+  </si>
+  <si>
+    <t>Superb Picture Quality</t>
+  </si>
+  <si>
+    <t>Who Knows If It is Good?</t>
+  </si>
+  <si>
+    <t>Nice Picture and Decent Sound</t>
+  </si>
+  <si>
+    <t>Remote sucks!!</t>
+  </si>
+  <si>
+    <t>Lots of bang for your buck!!</t>
+  </si>
+  <si>
+    <t>4K clarity and easy set up</t>
+  </si>
+  <si>
+    <t>Newest model and more tech is not necessarily better.</t>
+  </si>
+  <si>
+    <t>Delivery from HELL!</t>
+  </si>
+  <si>
+    <t>Just a "dumb" HD TV unless signed-in and monitored by Google/Samsung</t>
+  </si>
+  <si>
+    <t>I HATE this TV</t>
+  </si>
+  <si>
+    <t>TV does not allow for channels with three digits, remote is horrible</t>
+  </si>
+  <si>
+    <t>Voice Recognition feature is corrupted, Solar remote won’t charge</t>
+  </si>
+  <si>
+    <t>You must sit front and center...or else.</t>
+  </si>
+  <si>
+    <t>Easy setup, smooth processor, nice picture</t>
+  </si>
+  <si>
+    <t>No picture</t>
+  </si>
+  <si>
+    <t>Picture Perfect With Excellent Sound Quality</t>
+  </si>
+  <si>
+    <t>Definitely an upgrade!</t>
+  </si>
+  <si>
+    <t>Nice TV, Responsive Customer service!</t>
+  </si>
+  <si>
+    <t>Strange vertical tearing down center of screen</t>
+  </si>
+  <si>
+    <t>Serious Software bug</t>
+  </si>
+  <si>
+    <t>Picture quality not what Samsung promised.</t>
+  </si>
+  <si>
+    <t>QLED As Good As OLED</t>
+  </si>
+  <si>
+    <t>Interface is beyond awful</t>
+  </si>
+  <si>
+    <t>Best Samsung TV I've owned</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>Beautiful TV</t>
+  </si>
+  <si>
+    <t>Does it come with Rosie Jetson?</t>
+  </si>
+  <si>
+    <t>TV Sent to me was 75 inches in a box of 82 inches and used not new</t>
+  </si>
+  <si>
+    <t>Bad Buy</t>
+  </si>
+  <si>
+    <t>GREAT PICTURE!!!</t>
+  </si>
+  <si>
+    <t>My baby!!!!!</t>
+  </si>
+  <si>
+    <t>Dead Pixels</t>
+  </si>
+  <si>
+    <t>Great TV and overall unit</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Great for some, just not me....</t>
+  </si>
+  <si>
+    <t>Good picture</t>
+  </si>
+  <si>
+    <t>Samsung QLED Q60A is a really vivid TV</t>
+  </si>
+  <si>
+    <t>Requires Samsung Account to install anything from appstore</t>
+  </si>
+  <si>
+    <t>Great picture - Lousy technology</t>
+  </si>
+  <si>
+    <t>Picture perfect!</t>
+  </si>
+  <si>
+    <t>Light leaks</t>
+  </si>
+  <si>
+    <t>4 solid stars</t>
+  </si>
+  <si>
+    <t>Yet another invasion of privacy</t>
+  </si>
+  <si>
+    <t>Fantastic Samsung Smart TV</t>
+  </si>
+  <si>
+    <t>Dead after 2 months</t>
+  </si>
+  <si>
+    <t>Worst possible dive</t>
+  </si>
+  <si>
+    <t>Missing Parts</t>
+  </si>
+  <si>
+    <t>FANTASTIC Images</t>
+  </si>
+  <si>
+    <t>Fast delivery... bad TV</t>
+  </si>
+  <si>
+    <t>Don’t recommend</t>
+  </si>
+  <si>
+    <t>A bit expensive for what it is</t>
+  </si>
+  <si>
+    <t>Picture quality</t>
+  </si>
+  <si>
+    <t>Can't believe it, but it is</t>
+  </si>
+  <si>
+    <t>Good TV, terrible remote</t>
+  </si>
+  <si>
+    <t>SAMSUNG 43-Inch Class QLED Q60A Series</t>
+  </si>
+  <si>
+    <t>Very Happy</t>
+  </si>
+  <si>
+    <t>Software sucks</t>
+  </si>
+  <si>
+    <t>Great TV, easy setup</t>
   </si>
   <si>
     <t>Awesome TV!</t>
   </si>
   <si>
-    <t>Beyond TV</t>
-  </si>
-  <si>
-    <t>Great buy, great performance.</t>
-  </si>
-  <si>
-    <t>Bad Shipment go with Best Buy.</t>
-  </si>
-  <si>
-    <t>Awesome TV 👍🏼</t>
-  </si>
-  <si>
-    <t>Broken on arrival.</t>
-  </si>
-  <si>
-    <t>Great for living room</t>
-  </si>
-  <si>
-    <t>You can't go wrong with LG</t>
-  </si>
-  <si>
-    <t>Best tv picture on planet.</t>
-  </si>
-  <si>
-    <t>Best tv ever</t>
-  </si>
-  <si>
-    <t>Reflection hurts picture quality</t>
+    <t>Such high rez wide angle viewing</t>
+  </si>
+  <si>
+    <t>Great TV Overall - Not the Best for Sports Action</t>
+  </si>
+  <si>
+    <t>Damaged upon arrival</t>
+  </si>
+  <si>
+    <t>Great TV and price</t>
+  </si>
+  <si>
+    <t>You can't remove the ads from your TV</t>
+  </si>
+  <si>
+    <t>Specs not as advertised</t>
+  </si>
+  <si>
+    <t>Great Great Picture, easy to use</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on April 21, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on June 4, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 20, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on March 18, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on March 23, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on March 22, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on April 9, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on May 31, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on March 27, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on June 23, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on June 19, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on April 20, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on May 20, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 17, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on April 10, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on June 24, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 5, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on April 17, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 8, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on June 27, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on May 8, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 26, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 7, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on May 26, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 21, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 18, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 4, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 1, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 22, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 7, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 27, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 3, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 9, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 30, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 20, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 10, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 16, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 28, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 15, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on August 13, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 2, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 24, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 21, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 15, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 26, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 12, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 10, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 2, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 27, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 21, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 21, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 5, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 12, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 20, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 30, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 26, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 27, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 23, 2021</t>
   </si>
   <si>
     <t>Reviewed in the United States on April 28, 2021</t>
   </si>
   <si>
-    <t>Reviewed in the United States on April 29, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on May 27, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on April 24, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on April 27, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on May 11, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on April 17, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on May 6, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 6, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 2, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on September 20, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 27, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 5, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 7, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on July 8, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on July 17, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 14, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 11, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on July 1, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 5, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on September 7, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 24, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 30, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on April 14, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 8, 2021</t>
+    <t>Reviewed in the United States on October 14, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 24, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 22, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 28, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 8, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 2, 2021</t>
   </si>
   <si>
     <t>Reviewed in the United States on August 3, 2021</t>
   </si>
   <si>
-    <t>Reviewed in the United States on November 25, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on July 19, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 15, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on November 3, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on September 2, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on November 5, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on November 21, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 20, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on October 30, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 9, 2021</t>
-  </si>
-  <si>
     <t>Reviewed in the United States on November 29, 2021</t>
   </si>
   <si>
-    <t>Reviewed in the United States on October 11, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 6, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on October 5, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on December 1, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 31, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on July 29, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on September 8, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on July 5, 2021</t>
+    <t>Reviewed in the United States on August 26, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 23, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 7, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 25, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 5, 2021</t>
   </si>
   <si>
     <t>Reviewed in the United States on August 19, 2021</t>
   </si>
   <si>
-    <t>Reviewed in the United States on July 20, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 4, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 2, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on October 9, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 20, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 29, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on July 2, 2021</t>
+    <t>Reviewed in the United States on July 16, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 14, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on July 9, 2021</t>
   </si>
   <si>
     <t>Reviewed in the United States on July 31, 2021</t>
   </si>
   <si>
-    <t>Reviewed in the United States on October 28, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 25, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 1, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on September 19, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 10, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on October 16, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 14, 2021</t>
+    <t>Reviewed in the United States on November 6, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on October 18, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 29, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on November 19, 2021</t>
+  </si>
+  <si>
+    <t>Reviewed in the United States on September 13, 2021</t>
   </si>
   <si>
     <t>Reviewed in the United States on November 15, 2021</t>
   </si>
   <si>
-    <t>Reviewed in the United States on June 13, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 7, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 8, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 4, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 16, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 13, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on October 20, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 9, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on September 17, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on June 15, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on September 6, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on August 18, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on July 14, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on November 28, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on October 18, 2021</t>
-  </si>
-  <si>
-    <t>Reviewed in the United States on September 18, 2021</t>
+    <t>Reviewed in the United States on June 26, 2021</t>
+  </si>
+  <si>
+    <t>5.0 out of 5 stars</t>
   </si>
   <si>
     <t>3.0 out of 5 stars</t>
   </si>
   <si>
+    <t>1.0 out of 5 stars</t>
+  </si>
+  <si>
+    <t>2.0 out of 5 stars</t>
+  </si>
+  <si>
     <t>4.0 out of 5 stars</t>
   </si>
   <si>
-    <t>1.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>5.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>2.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>First tv arrived with a shattered screen. Amazon replaced it quickly and it was fine. We have an LG Oled and it is incredible at all angles. This LG Uled is only good looking straight on. Viewing at left or right angles the pic fades and the colors are very weak. We use it in a bedroom so we basically look straight on so it is fine for us.......but in a large living room I think, if you can afford, the Oled would be the best. It’s a much better TV.</t>
-  </si>
-  <si>
-    <t>This TV is excellent. Color is good compares others on this price range. Only con i can think of is there is NO "HBO max" yet. If you think of best tv on this price range, This TV is what you want.Update: i had some sound distortions issue. So i thought it was soundbar that i have but it was the TV! It happends when you use HDMI(arc) so check your TV also has same issue. And i couldnt exchange when i realized this cause of its been over 30days. Anyway i hope this is helpful 🙂</t>
-  </si>
-  <si>
-    <t>Received my new TV.  No damage, screen is perfect.  Setup was quick and fairly easy, although there’s a lot more to learn.Everything was great until TODAY...about a week after setting it up.Watched my tv, connected to my home theater this morning and everything was fine.  Hit the off button on my TV’s remote, and both the TV and my Denon receiver shut off as expected.I COME HOME A FEW HOURS LATER, CLICK THE POWER BUTTON ON MY TV REMOTE....ONLY THE TV COMES ON, NOT MY RECEIVER.  I TURN ON MY RECEIVER TO FIND THE MY TV IS NO LONGER SENDING AUDIO TO MY TV THRU HDMI(ARC).I SWITCH TO OPTICAL OUTPUT....NO GOOD.I am at a loss as to what to do and as far as I’m concerned this LG tv is a total MISS.I week of usage an already the audio is messed up?NOT GOOD.I hope can find SOME was to get the tv to output audio again.  Wish me luck!Let me add one final thought.  This is a highly advanced feature packed TV that comes with a Users Manual better suited to the average 4 slice toaster!  Shameful and frustrating!</t>
-  </si>
-  <si>
-    <t>Arrived in perfect shape and easy to set up out of the box. Picture quality is stunning and spot on with deep colors, sharp details and infinite blacks. Integrated well with the Apple TV 4K</t>
-  </si>
-  <si>
-    <t>Excellent TV love LG brands, was amazed at the picture quality better than the rest of our TV's.</t>
-  </si>
-  <si>
-    <t>THE MANUAL IS NOT GOOD ENOUGH TO EXPLAIN THE BASIC SIMPLE THINGS ON HOW TO OPERATE THIS TV. THANK PRESIDENT TRUMP FOR HELPING WITH CUSTOMER SUPPORT WHICH KNEW RIGHT AWAY HOW TO CORRECT IT. NOW I AM HAPPY.</t>
-  </si>
-  <si>
-    <t>Our TV arrived completely shattered. We've sent for a replacement and hope the next one is better.Edit: the second one arrived in much better condition and it's a pretty decent tv.</t>
-  </si>
-  <si>
-    <t>What a great buy! so happy with this. Very light weight and easy to install. You're online in seconds and everything works with ease.</t>
-  </si>
-  <si>
-    <t>For a $600 tv i love it. I dont know why people are comparing to a OLED. If I wanted a $1500-$2000 OLED tv i would have bought one. This TV replaced a 5 yo $300 Sharp LCD/LED with the crappiest picture. The picture quality is 100x better, TV is thinner and i love the magic remote, especially the mouse feature.</t>
-  </si>
-  <si>
-    <t>Spent hours trying to get this to work.  Forums show that LG has known about this flaw for 3 years and they haven't fixed it.  Seriously?!!  The TV says it is connected yet it can't download user agreement.  I've tried resetting routers, the tv, waiting 20 min for it to reset, changing DNS, and factory reset.  Nothing works and without the updated user agreement you can't download apps and use any wireless features.  Very disappointed.  Will try again in the morning then will return for a refund.</t>
-  </si>
-  <si>
-    <t>I've had flat screen TV's since they first came out. Both Plasma and LCD.I always preferred Plasma because they had an excellent viewing angle similar to the old CRT Tv.s we grew up with, .Then, where Plasmas were gone, I had no choice and had to go LCD. They sucked for years as far as MY main criteria. Viewing Angle.They were like laptops where you have to be viewing straight ahead at the screen, dead center up and down and left and rightThen they improved and nowadays Consumer Reports rates most pricey sets with and 3 star (good) out of 5 for viewing angle, EXCEPT for LG which has had a 4 star (Better than average) viewing angle.That's still true.So, the viewing angle on this set is excellent,I have an LG OLED 65 inch that cost me a fortune in my living room and another in my bedroom.I also have an LG 42 inch in my basement ALL have great viewing angle,.I now redid the first floor of my house and in the front living room, I planned on spending a fortune again for an OLED set, but thought I'd just get an LG 4K Smart TV for the bedroom. LUCKILY, I did my bedroom first and bought this set, planning to get an OLED for the living room when I was done renovation,. BOY am I lucky that I bought this one first.The viewing angle of course is great, just like the ratings say, but I NEVER thought the picture was going to be this great. I CANNOT tell the difference when streaming HD that I rent on Amazon, or, HD that I pay extra for on Netflix and HD versions of movies and documentaries from Amazon where you pay a few bucks more to rent in HD.None of my friends could tell the difference between this set and my two OLED sets when I gave them a blind comparison test and asked them which was the OLED sets and which was THIS set,I cannot tell the difference,NOW I'm ordering another for the downstairs and it's going to save me a BUNDLE since this set was only $699 on AmazonI can't believe that I wasted money on OLED sets when I can't see any difference from this set,I'm very critical, but my main concern, like I said, is viewing.Samsung STILL has a long way to go with their average viewing angle,LG is the leader when it comes to viewing angle, \DO NOT waste your money on an expensive TV. This is a smart TV. Has all the bells and whistles,The remote is great, but I am used to it because of my other LG's.Take your time to use it properly and you will love it,ONE STAR OFF, because even though LG gets consistently high ratings on their products, their customer service SUCKS.I have four Air Conditioners in the house. TWO LG's because of the high ratings in Consumer Reports, but I wanted to save some money downstairs so I bought a Whirlpool and an Amana. (They are identical and both made by Whirlpool, got the Amana because the price was less under that name). When I needed customer service for the LG AC's, they sucked. I also needed customer service on my older OLED LG TV and customer service AGAIN, is useless. So, great products but ONE STAR OFF for HORRIBLE customer service. Buy this set. It is ALL you need in a great 65 inch 4K Ultra HD Smart TV,.DON'T WAST YOUR MONEY.The law of diminishing returns applies here. The tiny difference, that I dare you to see on the OLED's are NOT worth the fortune they cost,I LOVE this TV and hate the fact that it showed me how much money I would have saved had I seen this one before I bought those OLED sets.</t>
-  </si>
-  <si>
-    <t>This TV worked for about a month. Now nothing works. I can't use the voice commands, I can't AirPlay from my phone, I can't open apps, I can't go to the App Store. Nothing works. And what's worse is that Amazon and LG's customer service teams have both been completely unwilling to help. Good luck trying to get in touch with someone if you buy this TV and it stops working for you like it did for me.</t>
-  </si>
-  <si>
-    <t>A complete nightmare to set up.  Although web connected "User Agreements" will not down load, so any so-called apps won't work.  There is no "Thinq" program for a PC.  Took 3+ hours just to get it to work as a TV.  Zero information supplied. No "Alexa" or other applications.  The "magic" remote is more of a hinderance than a help.In my experience LG has the worst UI in the business.  After 10 years at PARC I know.</t>
-  </si>
-  <si>
-    <t>We received the 65 inch TV in perfect condition.  It was very well packaged and there was no damage to the exterior of the box.  We were appreciatitive of the unboxing directions, this is a huge tv lol.Setting up the TV was pretty easy except for the remote.  There are pretty much no directions for the tv or remote in anything that came with the tv.  Went online for any assistance with the remote but there wasn't much there either.  The remote is not a "Magic" remote in my book. More like a bit of a pain in the ass.So I am learning as I go with the remote. It really flipped me when a cursor appeared on the screen when messing around with the remote. That takes some time to get use to.Basically, we are very pleased with the tv. The only issues to this point has been the Magic remote and not having Discovery + as an available app for the tv.  We're pretty disappointed with that situation.  It was not a difficult work around but I feel like they should have an app for Discovery+ by now. To work around it we installed a Xfinity Flex box to the tv. If you're not familiar with a Flex box, it works like Chromecast, Roko, etc. Problem solved but would rather have the app and have left the Flex box in the bedroom attached to an older tv.Overall, great picture and sound, great tv in this price point compared with others in the same class. I can't wait to figure out and utilize the AI features. Would I purchase it again, yes and would recommend to friends.</t>
-  </si>
-  <si>
-    <t>Overall I'm disappointed in the quality of this "TV." If I had to do it again I would NOT but this but would instead go for the Samsung UHD 65" less than $100 difference in price.It is as thin as advertised and much lighter than I expected. About the same weight as the 42" Vizio that it replaced.It is slow to power on. I'm sure it's LG's WebOS. I have a 42" LG LCD on my desk that I use every day for work and it is an outstanding product.But this is not. It is slow to power on, slow switching between apps (as in I thought I pressed the button ... Wait wait). It supposedly allows you to select apps but you cannot delete most of the apps including "LG TV". (I was able to delete the Disney and Hulu apps). Alexa is slow. As in ask it what time and I can walk across the house to the kitchen and read the clock before it answers. The voice is also not Alexa...The screen is backlit but unfortunately very unevenly. When dark images are on screen the uneven backlight is visible and look horrible.Installation of the Amazon Prime Video and Alexa apps was easy. After that I did a typical Amazon new device sign in.I rented a UHD movie from my mobile and it was as always immediately in my items list. Playback at UHD was slow and jumpy. Overall a poor experience. I paused and switched to HDMI 1 input, an XBOX ONE. Same Internet service and network, same streaming source (Amazon Prime) and same video.. I literally selected resume in Prime Video app on XBOX and it was way better.Considering the age of the XBOX it's beyond disappointing that the LG os and apps perform so poorly.While the screen itself is probably a 3/5 in quality the poor user experience and quality of their software demotes this from a "Smart TV" that I paid for to an overpriced 65" monitor.I can confidently recommend you not buy this product.</t>
-  </si>
-  <si>
-    <t>Tv is fabulous picture is crystal clear smart features are terrific. The issue is don’t order from Amazon. I had ordered it first delievery screen was smashed. Second delivery screen was smashed. They wanted to second a third and I said I was done and wanted refund. Went to Best Buy and purchased one in pristine condition.</t>
-  </si>
-  <si>
-    <t>The tv has a great picture, good sound and many features. There is one major flaw in the tv and that is the wifi. It will connect then randomly disconnect from your router and when you go to see why it cant connect it will say cant connect to media server. This happen on 3 of the same tvs because i asked for 2 replacements and it happen on every single one. I talked with LG and said i would have to get it service and why should it be serviced when its basically new out of the box. Avoid this tv if you are going to use this subscription or just avoid it because its unacceptable to be sold something with broken wifi. They could have made this a regular tv and it would have been a great tv but no slapped a router on it with an os and call it a smart tv. that wasn't very smart of them to do.</t>
-  </si>
-  <si>
-    <t>No customer service openDoesn’t workThanks again</t>
-  </si>
-  <si>
-    <t>This television is NOT 55 inches…it is 47 inches..so just be aware and know what you are paying for.</t>
-  </si>
-  <si>
-    <t>This would be great if it were the correct one. This is NOT 65”!!Second time this week!</t>
-  </si>
-  <si>
-    <t>UPDATE: I received the replacement TV. The second day I had it on it said it needed to update. After the update the remote and voice recognition stopped working. I cannot pull up YouTube and other apps. This TV is crap do not buy it, save yourself the headache.It showed up shattered! I would have just done a return but I used $150 gift card on the TV and they were making it a hassle to get the gift card back so I ordered a replacement. Now, instead of my TV being here in four days, it will now be two weeks before I have a TV. I will update if the replacement works. If you are on the fence on whether to buy this TV or not, do not buy this TV. Read the reviews, it looks like everyone is getting a shattered TV. I wish I had read the reviews first!</t>
-  </si>
-  <si>
-    <t>Edit: To clarify, the device hardware and viewing experience itself are adequate for this price point.I should have known better, as I explicitly refused to connect my first LG tv with the internet and instead used media integration through my PS4 console. Software and setup are agonizing. The fact that I would rather buy a Chrome or Amazon dongle speaks to how atrocious the software experience is.It forces you to set up an LG account so it can collect data off of you and make money from marketing ads. It forces you to agree to data collection to use any of its apps. And the apps are such garbage that you would rather buy a streaming dongle in order to use the damn thing properly.The age of "smart" device integration into our lives has been mediocre at best.</t>
-  </si>
-  <si>
-    <t>Pretty meh for a 4k LG tv. Viewing angle is bad. And I don't mean just if you go side to side the picture gets dark, but literally if you sitting on your couch and you slouch you can be too low for the proper viewing angle. Sound is muddy; my three year old 50" Phillips 1080 tv was better</t>
-  </si>
-  <si>
-    <t>I recently entered the world of streaming and cutting the cord. I replaced a 6 year old Samsung Smart TV in my office with a 55" LG TV. My old 50" went in the bedroom, but it was too large for the corner, and the smart features on that seemed really limited on not allowing me to add any further apps. So I replaced it with a 43" LG TV. I was trying to get the same series as my 55", but it was a 2020 model and hard to find it at a decent price. This 43" is an updated model, has all the current smart TV features, an awesome picture, and the sound is really good too for this smaller room. Of which I only use it at night and I keep the volume low. So the built in speakers are just fine. And I noticed that it has an extremely slim frame. So the TV looks real sleek and does not take up any excess space. One thing about the remote that I cannot figure out yet, is that it has no play/pause button like my 55" TV remote does. Haven't explored the voice commands yet, but I suspect they may work for that. I would recommend this TV for where you would like a smaller TV or in a smaller room where it better fits. Excellent price. Kind of phenomenal pricing when you look back about 15 years and 32" flat panel TV's were priced over $1000. Now a 43" with fancy features for $400. That is great. My 55" was on sale at Sam's for $419. So great deals overall. LG Smart TV's are a winner.</t>
-  </si>
-  <si>
-    <t>Pretty good tv, I would recommend it.Cons: The UI could use some improvements. Unavle to download HBOmax app. Screen is fairly reflective.Pros: great look screen. I can tell the difference between their 120hz vs others 60 in similar price range. Very vibrant colors. Can connect Bluetooth headphones to it.</t>
-  </si>
-  <si>
-    <t>Sound and picture is good quality. Biggest disappointment is the UI for what it can download for apps is not what was expected, still needed an Amazon fire stick to get some of the more popular apps installed. Maybe over time we’ll figure things out. Just not out of the box.</t>
-  </si>
-  <si>
-    <t>Overall this is a good tv, however this is a remote from hell, new issue for 2021, there is no tutorial anywhere as to how to use, written or on line…no clear button for features.  Looked tutorials on YouTube and they go like this, double click such a button and you will find a hidden  menu.  The features are hidden who knows where.  This is very frustrating…and it takes away from the enjoyment of the television.  I am slowly discovering the navigation by trial and error….had I known this I would have chosen a different brand.I feel LG could have done a better job with this remote or at least let the consumer know how to operate it.</t>
-  </si>
-  <si>
-    <t>The menu system sucksThe remote control setup sucksCould not get cable box remote to work with TVThe instructions suckIt has a pointer built into the remote, it sucks.What good is a beautiful TV if all of the usability features sucks.I feel like manufacturers are taking advantage of consumers.  Stop hiding stuff.  These cute low contrast menus are not good for the average consumer.  Why do you care if they are low contrast when they are hidden 99.999999999% of the time.  Give the setup menu contrast.  And do away with the SMART TV crap.  Put more into the interface.  If I want a ROKU or Apple TV I will buy it.  Stop forcing me to buy SMART crap that is dumber then a box of rocks.  I like the picture, but I got so stressed out setting up the TV I almost thru it out.  A new TV should be a joy to install and operate.  You missed the mark today.  Everyday is a test, and you got an F today LG.</t>
-  </si>
-  <si>
-    <t>Within 3 weeks of owning this TV, a giant 3-4 inch line appeared down the length of the screen. It just flickered into existence and won’t go away. What kind of trash TV breaks after 3 weeks? The pixels are messed up, and there doesn’t look like there’s any way to fix it. Do not buy this garbage.</t>
-  </si>
-  <si>
-    <t>Easy to set up (wired network, Ethernet), I used my LG sound bar from other 65" LG tv. Photos are "standard" setting on tv. Delivery team carried tv into my living room, I unpacked, no damage (was worried because of other reviews). Followed prompts at start-up for easy set up. Built in Alexa didn't initially work, I updated software in settings, restarted tv and it worked.</t>
-  </si>
-  <si>
-    <t>The display is excellent, after you sort out how to adjust it! The manual doesn't tell you how to adjust the display but it's easy enough to find the info online. The default display settings weren't to our liking, a bit dim which made it appear less sharp. We set it to the 'Sports' setting (even though we rarely watch sports) because it had the right balance of brightness and sharpness.It's a great tv for the price. We weren't ready to pay the OLED prices and feel this display gives us more than adequate visual satisfaction.</t>
-  </si>
-  <si>
-    <t>We had an LG LED Smart TV for many years, and it always provided us with a sharp picture and a quality sound.  Consequently, we were not hesitant about buying another LG TY.  The TV was easy to set up, and we were up and running in no time.  This newer model has some new features that give us greater flexibility in selecting what we want to watch, how it can interact with other equipment.  It's a great TV at a good price.</t>
-  </si>
-  <si>
-    <t>LG ran a check it seems my TV developed some blacklight bleeding. So I’m waiting for a led panel and the repairman to fix it , I’ll  try to get keep you updated. PS… though I’m not really disappointed all in all it’s a great tv . They had a repairman come to the house a new LED panel was damaged ,now for the waiting game !!!!</t>
-  </si>
-  <si>
-    <t>All the features would've been amazing-- if they worked. It's not recognized by Alexa, the wireless display disconnects after only a minute if you want to connect it to your laptop, the voice feature doesn't work, and even the Netflix, Disney+, etc buttons at the bottom of the remote don't work. What even is the point of a smart TV if it can't connect to things like Alexa? Utter trash, don't waste your money on this LG TV. I spent so much time debating which TV I should get only to be stuck with this trash.</t>
-  </si>
-  <si>
-    <t>TV was set up and picture was horrible and defective. Green tint on left side of screen and yet the right side of the screen had perfect picture.I am returning the TV and it has become a major issue. They will not pick it up, expect me to carry a 50 lb box to a ups location.</t>
-  </si>
-  <si>
-    <t>My neighbor had an LG 49" 4K UHD and I was thoroughly impressed by the picture clarity and all the features. The Magic Remote is fantastic! I'm not sure why this item gets negative reviews because I love it and would buy an LG again! So take it from an audiophile and tech guy, this baby rocks!</t>
-  </si>
-  <si>
-    <t>Item damaged in delivery.</t>
-  </si>
-  <si>
-    <t>This TV does not support premium apps. This should be mentioned but it is not. I hate I didn't check all the apps before the window closed for return.</t>
-  </si>
-  <si>
-    <t>Amazon delivered this at 4:30am in the morning!!  They let it in the rain, getting soaked, and i live on a busy street where it could of easily been stolen in the next 4 hours until i actually woke up.. called my phone at 4:30am in morning for an OTP code to confirm... seriously, the day after thanksgiving my doorbell being rung by amazon drivers... completely and utterly unacceptable.  TV is great though, highly recommended with LG, ordering a TV from amazon wont happen again though ever in a million years.</t>
-  </si>
-  <si>
-    <t>Where have you been all my life ???  My first TV I ever bought was in 1980 when I was in Japan - a 15-inch Sony.  I moved up to a 28-inch Sony a couple years later and thought I was a big baller.  47-inch Panasonic in 2004 . . . a 56 inch, a 60 inch years later and now this baby.  Best picture yet !!!!</t>
-  </si>
-  <si>
-    <t>Great picture,  sound, features, and all. I'm extremely happy with this LG TV. Zero problems and easy set up. Works with all the apps I use. Remote is solid and great quality too. I recommend this TV to anyone.</t>
-  </si>
-  <si>
-    <t>For the price and the space I needed to fit this tv into, it’s great, works great and I’ve got no complaints. Except for the stickers that came stuck directly in the monitor. Instead of a plastic film covering the entire screen like my other LG (55” OLED), and the stickers being attached to that, this tv came with no protective film, just the stickers. Like the picture shows (lower left corner), removing the sticker left two noticeable spots that I haven’t yet been able to get rid of.</t>
-  </si>
-  <si>
-    <t>Picture quality is great but I am unable to view movies through the streaming services (except Amazon prime video), even though the remote itself has labeled buttons for several services. This is a TREMENDOUS inconvenience. I purchased this television specifically to stream movies. Disappointed is an understatement.</t>
-  </si>
-  <si>
-    <t>Tv itself seemed ok , a little complicated setting up for a senior lol. Amazon needs to be more careful with shipping , 1st tv arrived cracked screen, 2nd one had 3 defects on bottom of screen. I tracked it on amazon site it went up and down in the state till I finally got,  too much handling.. will not reorder.  AMAZON YOU NEED TO DO BETTER</t>
-  </si>
-  <si>
-    <t>I was so excited about this tv. It seems to be a great tv but when it was delivered to me it had already been dropped as there was a giant crack all the way across the screen. waiting another week now</t>
-  </si>
-  <si>
-    <t>Has some issue with WiFi connectivity but simply unplug and reconnect the tv.</t>
-  </si>
-  <si>
-    <t>It was exactly what I was looking for, setup was easy, like the variety of the different streaming apps</t>
-  </si>
-  <si>
-    <t>The built in LG guide has about 400 channels (This may be powered by Pluto TV, not sure) The magic wand remote is like using a computer mouse in the air.  The sound from the TV is not as loud as I would like, so I added a soundbar.</t>
-  </si>
-  <si>
-    <t>Was so excited to purchase this television on Prime Day for our new home, we have a media room it’s perfect for!  However, it arrived with a shattered screen and we were hesitant to order another one as a replacement.  We contacted Amazon and explained the situation, they were wonderful, UPS is picking up the damaged television tomorrow and our new television will be delivered on Wednesday via Prime…. Fingers crossed its screen’s not shattered, too.</t>
-  </si>
-  <si>
-    <t>TV Quit working in 3 months.  Do no buy this model.</t>
-  </si>
-  <si>
-    <t>I’ve been in. Nursing home for several weeks so I haven’t actually had the opportunity to try out the TV yet.  It will be a few weeks before I get back home. I’m going by previous experience with LG TV’s and I’ve never been disappointed. I believe the purchase will be one worth having</t>
-  </si>
-  <si>
-    <t>Really the hardest part was getting it out of the box.  The power input on the back is a little hard to find.  I am impressed by the picture quality.  I have not found Alexa yet and frankly I just want to turn it off.</t>
-  </si>
-  <si>
     <t>Your browser does not support HTML5 video.
-   This is useless tv. I am getting internet issues on my TV. My streaming websites are buffering. I talked to customer support for 1 hour but they could not resolve the issue.I get 400 Mbps speed on my laptop but I get only 50-60 Mbps speed on tv</t>
-  </si>
-  <si>
-    <t>I am very disappointed with this TV.  All kinds of problems with connection to internet.  Constantly have to turn off TV and reset.  I miss my old Samsung.</t>
-  </si>
-  <si>
-    <t>Your browser does not support HTML5 video.
-   Great quality and picture</t>
-  </si>
-  <si>
-    <t>Purchased on Prime Day. Shipped fast. Packed well.Setup was easy. Also ordered Amazon recommended wall mount.Nice TV. Good features.Happy buyer.</t>
-  </si>
-  <si>
-    <t>Beautiful picture.  Lots of features.  Handy remote.  Incredible sound!  Easy set up.</t>
-  </si>
-  <si>
-    <t>Picture quality is fantastic. LG updates software often, unlike our other TV (another brand). Very thin TV. We’re very happy with this purchase.</t>
-  </si>
-  <si>
-    <t>TV screen was cracked even though package appeared undamaged. Replacement ordered, hopefully the next one is better.</t>
-  </si>
-  <si>
-    <t>Quality and function are excellent.</t>
-  </si>
-  <si>
-    <t>Love it. So far was very easy to set up and connect. I changed router, two cable boxes and replaced older model TV in a half a day. NO problems. I was happy that all the cables and connectors I needed were available. I have NO complaints. I Have had several  LG flat screen TVs for 13 years, so the controls and procedural steps were not new to me.</t>
-  </si>
-  <si>
-    <t>Your browser does not support HTML5 video.
-   At the beginning the image was perfect and very detailed, but now the screen ghosting is impacting the colors heavily… Wish I could return</t>
-  </si>
-  <si>
-    <t>I'm not into all that streaming crap, and I HATE the pop-up suggestions!!!!!! NO WAY TO TURN THEM OFF!!!!</t>
-  </si>
-  <si>
-    <t>It took a while for me to set up but it is very easy to use. The picture looks great.</t>
-  </si>
-  <si>
-    <t>A pesar de que no es tan grande se ve nitida la pantalla es un buen televisor y se escucha muy bien</t>
-  </si>
-  <si>
-    <t>Small apartment living room beautiful huge screen beautiful picture.I love it .</t>
-  </si>
-  <si>
-    <t>LOVE MY TV , THANK YOU LG, FEATURES GREAT, PICTURE QUALITY, AND EVRYTHING ELSE, THANKS AGAIN KEEP UP THE GOOD WORK.</t>
-  </si>
-  <si>
-    <t>Love It has the most beautiful color EVER!!! WE HAVE A BOSE SOUND BAR ON IT. I couldn't be happier with it💙</t>
-  </si>
-  <si>
-    <t>Wrong size sent (smaller). Spent 30+ minutes on the phone trying to get difference in money back. Sound quality is bad, inconsistent and sometimes out of sync. Picture quality is poor on any setting. The remote is really annoying. The TV is slow, clunky and not always responsive. So many apps are unavailable. Total waste of time and energy.</t>
-  </si>
-  <si>
-    <t>The picture is decent but good god the user interface is rubbish. Got to get an Apple TV or Roku. It’s a decent tv all in all.</t>
-  </si>
-  <si>
-    <t>I have purchased 2 and would do it again.</t>
-  </si>
-  <si>
-    <t>Love it,  but miss the built in rku</t>
-  </si>
-  <si>
-    <t>It's an OK TV</t>
-  </si>
-  <si>
-    <t>Overall a good tv. My biggest dislike is the remote control. The button you have to push the most is slightly lower than the buttons around it and it makes pushing it very hard for someone with long nails. Very annoying</t>
-  </si>
-  <si>
-    <t>It is a nice TV. Good picture quality. But my primary issue is that there is not a good user friendly manual</t>
-  </si>
-  <si>
-    <t>This is the only TV in my home. I’m really enjoying it.</t>
-  </si>
-  <si>
-    <t>Oh a very nice TV</t>
-  </si>
-  <si>
-    <t>Shipping was fast, no defects or problems with the tv whats so ever. and the price was the best and the lowest compared to any competitors.</t>
-  </si>
-  <si>
-    <t>I sent this back, because it showed up with a crack in the screen.</t>
-  </si>
-  <si>
-    <t>It's little tricky to connect with the Sound bar, but overall it is very nice and clear. The TV already includes useful apps, so I personally think that I don't have to use Fire TV stick again.</t>
-  </si>
-  <si>
-    <t>Alexa home use is terrible,  will not connect correctly with Alexa.  You have hold down the assist and alexa buttons on the remote to speak to it.  The Alexa user interface is very bad and frustrating.</t>
-  </si>
-  <si>
-    <t>Set up out of the box. 5 minutes! Beautiful picture</t>
-  </si>
-  <si>
-    <t>Massive 75” and great picture quality. Now to find a new TV stand or just mount it.</t>
-  </si>
-  <si>
-    <t>To watch</t>
-  </si>
-  <si>
-    <t>Nice picture</t>
+   First off, I want to dispell any bad reviews you may read about this TV. The people who wrote them simply don't know how to do an "Expert Setup" on their TV. They obviously think it's "Plug n' Play" and that is NOT the case with any TV, not just this one.All TV's are setup at the factory and are set at neutral settings across the board throughout the TV's range. You MUST know how to properly adjust each individual setting to optimize the picture quality!!These settings are located under &gt;Settings&gt;Picture&gt;Expert Settings, on the TV's menu. Don't be afraid to make some mistakes, this is how I learned! You can always hit factory reset and yes, start all over again!!I know how to do this, I'm very experienced on tweaking TV's. Not to scare anyone, but this one took me the better part of 4 days to fine tune, but man, was it time well spent!!I scanned different channels, waited patiently for facial close-ups, making adjustments, and basically got a good sampling of all types of TV viewing. Doing this, eliminates the need to make minor adjustments with certain programs occasionally.I'm very discerning and picky when it comes to a TV's picture quality. Remember, this is only a one-time fine tuning!! Getting this picky only happens once, it won't be a constant hassle during your TV's lifespan. I have dialed in this TV so well, it's like looking out my picture window at real life action, live. In some scenes the people look lifesize!! Wild!!To the average viewer, you may not want to go as far as I did fine tuning your TV, but if you really want to experience the extreme level of excellence that this TV is most definitely capable of, you will find the time to take my advice and just do it!!I bought the 75 inch screen and mounted it on my living room wall like the masterpiece it is! I'm a firm Samsung believer, their quality and technology is top-notch and world-class!!I bought a full-motion wall mount for my installation. It's rated for TV's up to 130lbs. With a full-motion mount, it makes connecting cables very easy. Just pull it out from the wall and turn it to the left, that's where the USB/HDMI ports are. You can easily get behind the TV by doing this.If you need more USB/HDMI ports than are provided, there are 3, you can buy splitter hubs to turn one port into 2, 3 or more. Just be sure they are 4K splitters.Additionally, I recommend using a Bi-Directional splitter. It allows to either "input one" port, in to "2 output ports," or reverse it to "2 input ports," to "one output port.". (Depending on your specific needs.) These types of splitters are used for connecting other components to your TV. A button on top of the splitter allows you to switch between TV mode, to Blu-ray player or DVR etc.Note: If you're going to mount your TV on a wall, be sure to use a stud-finder to locate the wall studs. DO NOT mount your TV onto just drywall or paneling alone. My wall is thick pine paneling, drywall, and concrete block behind that.I used a 8" concrete drill bit and lag-bolted the mount with lead concrete anchors, directly into solid concrete. It's not going anywhere anytime soon!!I also bought a wireless keyboard and mouse so I can easily access the TV's internet capabilities. With Alexa included, I just say into the voice remote, "Alexa, open the internet." And she opens it to my home page. This is just one example of what Alexa can do, the list is seemingly endless. If you have other smart devices in your home, they can be programmed into this TV and controlled by using Alexa as well.As I write this review I am watching my big-screen as you would a computer monitor or smartphone screen and I have the Pandora music app pumping my favorite music thru my home stereo in the background. For me, this online multi-combination is great for reading/writing emails, playing on Facebook, Twitter, Instagram etc, paying bills, shopping or just browsing the web.And I would be remiss if I forgot to mention the voice remote!! No more batteries to change out! This remote has an indoor solar panel on the back! Bout time someone thought of that! It also has USB charging if you prefer. Its slim design is simple to use and easy to learn.I am simply blown away with this TV! I have it wired into my 1,000 watt per channel home stereo and I'm so glad I live in a cinder block house, not a glass one!! I'm waiting for the day I accidently blowout my picture window!!The combination of the big-screen and my sound system is like sitting front and center at the movie theater. Extremely impressive!For the price,  (It was $1497 at the time I purchased this 2021 model,) this TV is an amazing deal if you can't afford the upper class models, such as the Q70's, Q80's or Q90's.One hint for the not so tech savvy. You MUST upgrade your cable box/satellite service to 4K. This TV won't give you a 4K picture thru a cable or satellite box unless you do. Then check your cable box settings to make sure it configures correctly at boot-up and is set to 4K resolution.This upgrade should include using 4K HDR HDMI cables, NOT standard HDMI cables. So consult your cable or satellite service for what you will need to receive a true 4K (3840X2160) UHD picture. One other hint: Double-check your cable box video setting to be sure it configures correctly! Some boxes, even though 4K, will default to standard HD (1080P) or even 720P. If this is the case with yours, scroll to the 2160P setting and lock your picture into 4K. I have deep, rich blacks and bright, vivid colors that explode off the screen and come to life with true to life flesh tones as well. This is the result of the HDR (High Dynamic Range.)  Simply put, it enhances brightness, contrast and color levels significantly.I can actually tell the difference between a person in a black suit and a person in a very dark blue one! This tells me my brightness, contrast and color levels are set perfectly.Please don't judge this TV's picture quality by my cellphone pictures and short video! They truly don't do this TV justice. You have to see it in person, and just take my word for it that it's just absolutely incredible!All in all, I am extremely happy with this purchase, and I am sure if you know what you're doing, you can set it up perfectly to your liking. Or if you can't, ask a techie friend you may have, we all know one or two!!Just a quick note: I noticed that it appears that this comment page lists posts from owners with a wide range of TV models and sizes.For the record, I am experiencing outstanding results as I just described with the SAMSUNG 75-Inch Class QLED Q60A Series - 4K UHD Dual LED Quantum HDR Smart TV with Alexa Built-in (QN75Q60AAFXZA, 2021 Model)I can't speak to any other models. I hope your choice is as good as mine was!!Good luck!Jeff StearnsWhitehall, MI.</t>
+  </si>
+  <si>
+    <t>Everything about this TV is great, minus one thing (we'll get back to that). The picture quality is stunning, HDR is great, and the picture options are pretty vast and allows for a good amount of fine tuning. The smart features are also really nice, though honestly I just use my ps5 for video streaming so I can't be bothered to sign into both, especially when the tv remote can also be used on the ps5. The part that sucks is the speakers. WOW, these are actually terrible. They were actually so bad, I called my friend in just to laugh together at how horrible everything sounded. If I had to compare it to something honestly, it  sounds worse than some early 2000's phones. I didn't really mind too much since I had a few spare sound bars, but do not buy this unless you have a speaker to go with it. It's amazing other than that, but bad sound quality in a TV is kind of unforgivable in my opinion.</t>
+  </si>
+  <si>
+    <t>Dear Samsung,The remote control for this TV is A COMPLETE FAILURE IN HUMAN ENGINEERING. There are too few useful buttons and too many MYSTERY FUNCTIONS, icons, and inexplicable actions, making this "smart" remote very user unfriendly.  I handed the remote to 5 people and asked them to do something simple like "change the channel".  They had to futz and futz.  My guests don't want to wade thru a bunch of mysterious menus to do something simple. You can't simply undo incorrect actions because the remote simultaneously controls our Direct TV box and and you almost never get the expected result.I can only imagine what would happen if a hotel tried to use this remote in their rooms.  They'd be flooded with calls.  This remote just has too few buttons to be useful, and too many things are buried in menus that require lots of button presses and navigating to accomplish. But Netflix and Amazon and Samsung TV must've paid to have their buttons on the remote, GOOD GRIEF.Technology should make things simpler, not more difficult. By trying to automate too much, you're failing to take into account what happens when button presses do the unexpected and you can't easily reverse course.It should be obvious how to work the remote control. If I've got to open a manual, it's a failure in human engineering.  It shouldn't require a research project to figure out simple things like changing channels or inputs or picture setup.  Give us a button. Don't make me wade thru 400 menus just so you can make a remote with fewer buttons.  If I have to spend time online and in forums to figure out how to do something simple it is badly designed BY DEFINITION.The setup process was hardly flawless, either. Numerous times the app would hang and give me a whirlygig forever.  And I've got a Galaxy Note 8, so Samsung can't blame the phone.  If you're going to automate the setup process, it should frankly be flawless and glitch free. When I get to a point in the setup where the "continue" button is grayed out, it leaves me no choice but to start over in frustration.The picture on this TV looks great, but I will NOT be buying more Samsung TVs.  I want to watch the TV, not make a career out of how to control it.  This remote would be useless to my guests without me giving them a full tutorial. On top of that, I don't want to be forced to do multiple button presses and navigating around the screen to do something simple like changing the TV input source.  On my older Samsung, one button press is all that was required. Now you've got to launch the Smart Hub, Navigate to the Source icon, Navigate to the specific input you want and then hit enter.  Lots of button presses.  I will be returning this one shortly.BTW, I won't buy a car without a mechanical fan button on the dash, either. I want to reach for a knob without taking my eyes off the road.  If I've got to bring up a climate screen, find and select the fan icon, then poke at the up and down buttons on-screen, especially in bright sunlight, it is badly designed, IMHO.</t>
+  </si>
+  <si>
+    <t>Total brick right out of the box. There was no visible damage or signs of mishandling. The unit was completely dead ... no power getting to it at all, no standby light, nothing. I called the Samsung help line, where I was advised to box it up and send it back to Amazon. Refund still pending. Total waste of time and effort.</t>
+  </si>
+  <si>
+    <t>considering i bought this as an upgrade to 4k, very dissapointed in how 4k is displayed.  there is only one 'brightness' and 'contrast' that takes effect for HD and 4K.  when both are set to max and you can't see 4K content (too dark) and the HD content is on the verge of being too bright.this is a new tv, so maybe they're still figuring it out, but i can't figure out where to get support or report this, so i'll type it here.</t>
+  </si>
+  <si>
+    <t>I AM CHANGING MY REVIEW BECAUSE EVEN THOUGH IT'S A FANTASTIC PICTURE ONLY AT STRAIGHT VIEW. WHEN I STARTED TO WORK ON SOMETHING I LOOKED AT SCREEN AT 45 DEGREE ANGLE AND I LOST THAT PERFECT PICTURE.I MADE A MISTAKE THE FADED IMAGE ONLY HAPPENS WHEN THE TRANSMITTED IMAGE IS NON UHD.I AM GOOD AGAIN.WITH 1080P TO UHD AT VIEWPOINT IS 110 DEGREES. ANYTHING LOWER THAN 780 IS A WHITEOUT.SO IS AWSOME AGAIN.</t>
+  </si>
+  <si>
+    <t>The color and picture quality are excellent, and so is the sound quality. I had a tech person install the TV as I am not a tech person. The remote is not user friendly if one does not understand the meaning of each icon, and I am still trying to sort that part out.</t>
+  </si>
+  <si>
+    <t>This is a quality tv with all the features one could ask for.  Picture is amazing!  Easy to set up and connect to our wifi.  I especially like Samsung's new solar powered remote!  A big improvement over battery powered remotes.  The solar powered remote works flawlessly withour Spectrum package and various other apps, i.e., Netflex, Prime, Disney+, and Hulu.  Well done Samsung!</t>
+  </si>
+  <si>
+    <t>Arrived as per Amazon's detailed arrival instructions.  The box and set were in perfect shape.I was initially concerned because it had less HDMI ports than my previous set from 2014 but I quickly discerned that with all it's smart features, it doesn't need Chromecast (because it has an intricated series of screen mirroring features for computers and phones).I was blown away with a period piece on Netflix.  Some news folks facial coloration is off but I think it's due to Skyping in on cheap webcams.I'll add more info as I get to know the set.</t>
+  </si>
+  <si>
+    <t>It’s a great TV, the problem is someone at Samsung has decided not to include the mounting bolts in the 4 holes at the back. Every other TV we ever bought came with the bolts included. Dumb. How much do 4 bolts cost relative to a $600 TV? Locating the exact ones needed is a huge pain in the ass too.</t>
+  </si>
+  <si>
+    <t>First off the difference in EVERYTHING with this TV starts with a comparison of old to new TV between it being like watching TV without your glasses on amd listening to it through a radio station. This picture in Dynamic mode is unbelievably CRISP, SHARP LINED, AND COLORFUL.IN 5-6 years the changes they have made in TV viewing is like night and day! Gaming, wifes a big gamer, is phenomenally enhanced both visually and listening. The processing speed is so quick that as fast as you can use the remote, the TV responds. The remote is small and takes some time to get use to. But the solar charging feature is nice. Once you get the hang of the remote it and it's abilities, it actually eliminated three other remotes that we needed prior to getting this TV. Which is nice!Overall very please with this brand and the TV itself. Time will tell about the longevity. But Samsung has a great reputation so.</t>
+  </si>
+  <si>
+    <t>The audio in this TV is not working right. It cuts out every few minutes for 10 seconds. Both external and internal speakers have this issue. I’m using the built in apps and all of them have this issue. I think something is wrong with the sound card.</t>
+  </si>
+  <si>
+    <t>Pros: picture, sound quality, value for money are all 5-stars. Ease of set up. Thrilled by all.  I've cut the cord and use multiple streaming services  with a hi-speed wi-fi connection (not on ethernet) and rarely have a hiccup.Cons: remote control/navigation often takes you too far "back", remote doesn't fully recharge  quickly via USB. I use phone app as remote as substitute for more options.</t>
+  </si>
+  <si>
+    <t>Well, an upgrade for me to QLED. I use this as a PC monitor (with the brightness turned way down), for my 4K Blu ray player and use a digital antenna. No cable for me.The picture is good. I notice just the SLIGHTEST bit of pixelization when I'm up close. This MAY fade as the screen breaks in. (Samsung claims no break in period)Colors are really good with HDR, 4K Discs look FANTASTIC.The form factor is super slim. keep in mind that there is barely any bezel around the edge so there is almost nothing to grab onto to move the screen. If you have an extendable wall mount you WILL get smudges when you grab it.The feet are nicely shaped and slim, and the adjustable height is nice. However, the feet are not tightly locked into the screen, and there is a good amount of front to back wobble when sitting on a surface that moves slightly. I have this on a desk with a mic boom attached, and whenever I move the mic, the tv rocks back and forth. I REALLY wish manufacturers would put more effort into the feet of these expensive sets. The adjustable legs only do 2 positions, and should really be attached more firmly.The remote is super sexy slim and minimalist.The software and GUI is where this set really gets annoying. It takes NINE button presses to get to the bloody SETTINGS screen. This is BEYOND stupid and frustrating!Want to switch to game mode? FOURTEEN button presses. So obnoxious I want to speak to the interface designer.Anyway, that's first impressions. Will add review of software functions once I feel like pressing the remote buttons 8406 times.</t>
+  </si>
+  <si>
+    <t>I don’t know where to begin but I definitely like the remote that it comes with and how easy it is to set up he remote for controlling other devices. I love the color aspect of the television and contrast I do wish there were more controls for picture clarity but it’s definitely a pretty picture none the less. HD will look meh on this TV, just due to its massive size. 4K is stunningly brilliant and beautiful. I bought the Sonos Arc soundbar and Gen 3 sub and it’s definitely a kick ass system. My only gripe is they give 3 HDMIs so figure that out lol. It comes with Apple TV built in, Alexa and Google assistant as well and airplay capability and of that works as I tested it all out. Definitely get the Arc soundbar though because the speakers on this will not do the picture justice.</t>
+  </si>
+  <si>
+    <t>I use YouTubeTV for my local TV screening, etc.  Application loads properly but when I attempt to change to another station, get the buffer circle briefly and then black screen.  Channel does not load and from that point on, nothing works on the application.  Spent two hours on the phone with Samsung Support.  As instructed, I deleted the Application; I reinstalled the Application, same problem.  We reset the television to Factory setting.  Same Problem.  All other applications work.  Have a Roku box and am able to watch ALL OF YouTubeTV features with no problems at all through it and on my Amazon Fire Stick.  Have tried everything I can think of that might be causing the conflict but am at my wit's end and  even deleted the application from my Samsung S21 phone.  PROBLEM STILL EXISTS.  NOT A HAPPY CAMPER AT ALL.  FIRST SERIOUS PROBLEM WITH A SAMSUNG PRODUCT...I HAD A 2013 SAMSUNG SMART TV THAT WORKED FLAWLESSLY....WHAT'S UP WITH THIS Q60A, QLED 4K UHD 2021 MODEL??????????  LOOKS LIKE A RETURN IS INEVITABLE.</t>
+  </si>
+  <si>
+    <t>I had high hopes for this TV after putting a lot of time into researching the different options around this price point. When I first received it, it worked fine - my first impressions were: good picture quality out of the box, didn't require much optimization at all, Smart features are very comprehensive - I liked the way it aggregated content from multiple streaming services. I liked the neat little solar powered remote. The sound, however, was disappointing vs. the 10yr old LG set it replaced - tinny, with hardly any bass - not particularly surprising given how thin the TV is, but I would agree with other reviews that you really need a sound bar for this TV if you care about good quality sound. I purchased a Samsung sound bar and was pleased to see it integrated well with the TV, operating from the same remote etc. All was well until about 5 days later when I turned on the TV one afternoon and it seemed to freeze after just a few seconds on on-time. I restarted the set thinking it was just a temporary glitch, and was disturbed to see that the exact same behavior occured again.... And again... And again... The TV developed an issue where it stuck in a "boot loop" - it would start up, get to the intro menu, but within a few seconds would completely freeze and then restart. There is absolutely nothing I could do to get it to stop this behavior - it was impossible to get to the Settings menu because the TV would freeze before I could navigate to the menu. I tried everything - powering down the set, switching power cords, scoured the internet for any ways of resetting the set, but absolutely nothing worked. Samsung support was useless - all they could offer was referral to a third party service center that likely would have charged me to come and try the same troubleshooting steps I had already done, so in the end I decided to simply return the set for a refund. I since replaced it with an equivalently priced Sony set which has just as good picture and smart capabilities, but with much better sound and a more robust interface. I was disappointed as I really wanted to stick with the Samsung, but the inescapable boot loop issue destroyed my confidence in it, and for that reason I strongly recommend against buying this particular set.</t>
+  </si>
+  <si>
+    <t>I have a severe hearing loss that requires me to use an audio streamer that connects to my starkey blue tooth hearing aids so i could not use this TV</t>
+  </si>
+  <si>
+    <t>Where to begin?  After spending several weeks researching options to upgrade our old 42" Vizio (model E422VLE) I decided on the Q60A 55" and was very excited to surprise my wife with the upgrade.  To keep things neat and tidy, let's break it down.Delivery:Amazon did a great job here.  I scheduled it for the earliest available slot (6:30 AM to 9:30 AM) it arrived right around 6:45 AM.  Box was in perfect condition, and the delivery driver helped carry the unit into the house.Unboxing:Samsung really thought this through as well.  After cutting the straps, you can open the top of the box for the accessories, and then simply slide off the main/upper portion of the box to get to the television.  Instructions were clear and easy to read, and the feet easy to install and adjust without tools.Design:The overall design of this TV is fantastic.  I honestly like it more than many higher end options.  The top and side bezels are not only nice and thin, but also a nice matte finish.  So you don't have to worry about any strange glare or reflections along the borders (my biggest gripe with the Vizio, which had monstrous, glossy bezels).  The offset logo is also a nice touch in reducing potential distractions, and it has a downward firing red light when powered off, which shouldn't cause any sleeping issues if this unit is in a bedroom.  Oh, and thin!  This TV is beautifully thin.As a side note: ATTENTIONAL ALL INDUSTRIAL DESIGNERS!  Please, PLEASE stop using gloss black on the front-facing surround of screens.  It makes no sense and is needlessly distracting.  Yes, I know it's supposed to look and feel "premium", but it just attracts glare, dust, and toddler fingerprints.  Have some fun with matte finishes, different tones of gray, frosted glass or other materials, whatever.  But no more gloss on the front, OK?Setup:I didn't have a Samsung account yet, so I went ahead and got that going.  The authentication text messages seemed to have quite a bit of lag, but once the account was authorized it was pretty simple to to get the TV setup with my cell phone and the SmartThings app.Interface:In general, I liked the interface.  It was simple, easy to navigate, and nice and snappy.  No lag whatsoever.  I did notice some ads for service like HBO Max but this doesn't really bother me since the vast majority of our TV use is through a 4K Apple TV.Picture:Wow.  Just...  WOW!  Coming from the 1080p Vizio (which was honestly a fine TV for being 10 years old, just not 4K) I'm sure most 4K TV's would have been impressive.  Even so, I feel like I can honestly say the straight-out-of-the-box picture was gorgeous.  I didn't fiddle with any picture settings.  The colors popped without being overly saturated, and the blacks felt plenty dark.  All in all it just looked great.  I did notice there was some small, lightly darker spots in both lower corners, and when looking again at the display units at Best Buy noticed it was on their unit as well.  It's not terrible, and on any movies with even minimal letterboxing (like Luca) you won't even notice it.  But on bright backgrounds without a lot of detail it may distract a bit.Sound:Sadly, the sound is where things really started falling apart.  I'd read some reviews that the sound was like "a cell phone in the 90's" and thought to myself there's no way that could be true.  And while it isn't quite that bad, in "Normal" mode (the default setting) it certainly sounded severely week and hollow.  To the point I couldn't imagine trying to ever listen to anything in that mode.  The middle option, "Adaptive" was sufficient, though the bass still felt lacking.  The new iMac - which is significantly smaller and thinner - has significantly more bass and much, much better audio quality than the Q60A, which is disappointing.  But it gets worse...When using a 4K Apple TV the audio randomly, and frequently cuts out.  Sometimes when the next show in a series started to stream, sometimes in the middle of a movie.  Stranger still was that the sound in general still worked - if you pushed the back button to browse again you'd hear the navigation effects and chimes without problem - but go back into the movie/show and there wasn't any audio.  I tried adjusting audio settings, switching to AirPlay speakers (which would work fine) then back to the TV (still no sound), resetting the TV, and searched the Samsung support forums for answers.  Unfortunately it seems like this is a potential issue with this model, and possibly Samsung TV's in general.What's more, once while in the middle of a movie, the sound muted by itself (the remote was on the stand) for no reason at all.  The mute icon just popped up on the screen and stayed that way until I adjusted the volume with the remote.  Not an encouraging sign.I didn't expect spectacular sound, but the combination of what I would call "just barely adequate sound" at this price point, combined with the frustration of sound dropping randomly means I'll be sending this unit back.  If I decide to try a replacement of the same model I'll be sure to update my review, but for now I can't see giving any more than 2 stars.Summary:Amazingly colorful, crisp picture with some very subtle clouding in the lower corners, beautiful and thoughtful industrial design, and a clean, snappy interface.  But disappointingly poor sound and unacceptable sound dropping issues.  I would highly advise looking &amp; listening to this model in a store first if at all possible.</t>
+  </si>
+  <si>
+    <t>I am a Samsung loyalist but this television is awful. The picture drags and pixelates. The ticker tape on the news judders across the stream instead of staying smooth giving you a headache.But the reason I sent it back after just two days was because the brightness was dull even set at its max. The whites were grey and the reds were burgundy. They only let you alter the brightness up to 50 so had no choice but to return it.The ONLY thing that it had going for it was the sleek remote control. By the way I did have Samsung expert help on the phone before I sent it back just in case I was missing something but they couldn’t get it any better either.</t>
+  </si>
+  <si>
+    <t>Good bang for your buck ! Great quality and good price - remote control kind of quirky - Believe it or not the volume is not easy to use</t>
+  </si>
+  <si>
+    <t>This TV is amazing, AMAZING!First I purchased the Samsung  65” 4K QLED for my bedroom, several months ago and absolutely love it so, I just bought the Same Samsung 4K QLED but,  in 75”, for my LivingRoom.This TV is not only HUGE but, the picture is just so incredible that I would have to say,Mind Blown, Mic Drop.Who thought we’d own TV’s of this size in our homes when, growing up, if you had a 26” Sony, you were the coolest family on the block.I can’t believe how truly affordable these are, yes, I caught both on sale plus, I have 2 Samsung Sound Bars with Subs for each and I’m truly in heaven, again Mind Blowing Picture Size and Unreal 4K Quality in QLED and the Sound with the Soundbar with Sub is just a wonderful, movie theater-ish experience that is a “must have” in today’s world of true Home Theater.Just a side note, since this is turning into. Novel, I plan to upgrade both my Soundbars and Subs to the Klipsch 600 w/surround speakers as soon as I catch a sale (never listen to these speakers at a store as it will make you so unhappy when you listen to what you already have or anything else and honestly, I was so super happy with the sound from my Samsung Soundbar setup).Damn Klipsch for being the Best Sound and the Big Electronics Store for allowing me to hear them, even though I specifically went to that store with the sole intention of hearing the Klipsch system before I would buy them from Amazon.There’s a Huge Difference, I mean Huge Difference from UHD (which I had in the 65” and replaced with a 65” QLED) and QLED, which you see immediately and if you can spend the extra bucks to get QLED, you’ll never regret it, I still can’t believe the difference as I had both a 65” UHD &amp; 65” QLED in my home at the same time and it drove me crazy so, I had to get another QLED ergo this 75” QLED.I bought the 3 year warranty and before you call me a fool/sucker, I will tell you exactly why it’s so very much worth it.What no one tells you (yet you can easily find out if you do a little research) all these Flat Screen TV are considered “Disposable”, to be replaced every 5-7 years as there’s little to near nothing that is fixable or worth the money to fix, that’s a biggie.I actually sold TV’s and other electronics a very long time ago and back then it was mostly a total scam but, not now.I’ve had 2 Flat Screens go out on me in the last 6 years and prices back then were much much higher.My 65” 1080P highest HiDef TV at the time (only $3,000.00 for a 42” LED), well it blew out, died, had a seizure, something or other and it was just out of warranty by only 3 months (of course).I tried everything, called everyone, started off really nice, tried bribing people and eventually went to yelling, cursing hey, Im a New Yorker (that’s a Nu Yawka who lived On Lawn Guyland okay😎lol) and got nowhere, nothing Fougeddabouddit.Finally I was offering to pay a repairman out of pocket but, he told me it just wasn’t worth it.My High Definition LCD Flat Screen went out with the trash (you don’t want to tell the wife that story because you know she was against it, never needed or wanted a big TV in “Her House! we’ll get back to “Her House” later”.I replaced that TV with a 65” 4K UHD TV but, this time I bought the 3 year warranty and wouldn’t you know it, at the very beginning of the second year(isn’t it funny how everything always works great until 12 seconds after the warranty runs out), the screen started to really mess up, there were streaks of light, bright dots and stars, it was just too annoying to watch, especially since our TV’s are now a major part of the home decor.In today’s living room, it’s become the key focal point and the main attraction for which the TV is front and center, then we adjust all the furniture around it.Of course I called the Extended Warranty Company btw &amp; fyi a little heads up so it’ll make sense or not, I’m a New Yorker so, I was already for a fight before anything started, it’s always going to be something and then an argument.I explained the problem bla bla bla and the service rep explained that I was out of the manufacturer’s warranty so, I was correct to contact them but, this was a problem that they were already very familiar with and unfortunately it’s  not a fixable problem.Okay, Here we go, my blood pressure is already rising as I’m waiting to find out how I was scammed.First the Service Rep apologized for it not being a repairable problem and immediately asked when the could Schedule the appointment to pick up my broken TV and bring me a Brand New One, a time that would be convenient for me.Wait, did I hear that correctly, what’s the catch?I asked he to repeat what he said and also to let me know how much out of pocket it was going to cost me for a New TV, that I think he just said, they are bringing me to replace my 2 years old broken TV?Long story short, they delivered a Newer Model as mine was discontinued, they apologized again (poor me they upgraded my broken TV for a newer model, I think I’ll live) and it cost me absolutely zip, zero, zilc, nada, NOTHING!!!I couldn’t wait to tell the Wife this story as I am going to exaggerate, embellish and make up a story of how I had to fight them to get this Newer Model and I wasn’t going to pay them a penny (come on, every guy does this, we all want to be the hero in our wives eyes).It didn’t matter because during this whole fiasco, it turned out the wife was defective too and like she said, the TV was my idea so, I got the New Newer TV for free all for myself and she didn’t get it (of course she got the House, Cars, the Dogs, basically everything but, the TV and Almost All Of My Money for the next too many years, that’s a divorce in New York, it’s all about the ladies and I’m okay with that but, this is about a TV &amp; the Extended Warranty and I got both!!!).The Moral of this Looong Story,The Samsung QLED is a wonderful thing to have in your house, just incredible, nothing comes close (there’s the 8K, it’s better but, if you had the big bucks that 8K TV’s go for, why would you still be reading this?) plus, if you add a Soundbar and Sub, now or later, Chances are you are going to love watching movies at home more than going out, driving to the theater, looking for parking, waiting online to pay ridiculous ticket prices just before you get robbed at the snack bar and don’t forget the super large cup of ice with a splash of soda and your $6.00 stale candy bar  , garbage pail of the saltiest popcorn that’s guaranteed to get you the new high score on the free CVS Blood Pressure Machine, don’t forget your “Fake Butter Flavoring”, now you’re already to sit with a bunch noisy nosey  of strangers, trying to calculate how the bill for the  overpriced snacks were more than the overpriced tickets yet, still unable to stop thinking about why your feet are stuck to those gross floors.Hey, some people just love that theater experience,I think a nice bright 4K QLED in my own hone with a nice sound system, my couch, my new future ex at my side, our own fresh junk food, no strangers annoying us and the best part,Pause for a quick bathroom break plus,Rewind anything you didn’t hear or want to see it again.I will pick Home Theater with my75” Samsung QLED every time (okay some movies should be seen in a theater but, that’s for you to decide, I’m staying home!)Five Stars ⭐️ ⭐️ ⭐️ ⭐️ ⭐️2 Thumbs up 👍 👍and a whole bunch ofSmileys 😃😃😃😃😃😃😃😃</t>
+  </si>
+  <si>
+    <t>I am so absolutely disappointed with this television. It took me a month to choose what brand and model to get, and I thought that this was going to be a very good choice. Boy was I wrong. The picture is AWFUL! So blurry and pixelated. The apps ALWAYS freeze, and I have to unplug the television and then plug it back in to reset it. This is a garbage tv.</t>
+  </si>
+  <si>
+    <t>This is a beautiful, reasonably priced, latest model Samsung TV. I was pleased to see it for sale by Amazon, but even more delighted that they now have a reasonably priced delivery service that will bring it into the home, and into any room you desire. I chose the early morning window of 6AM - 9AM, and it arrived at my 26 floor apartments door at 7:30.By 8:30 AM I had it up and running, fully voice controlled instruction and setup for TV, Amazon Prime and Netflix.  Great picture quality, although I did add an inexpensive sound bar to enjoy music and videos.</t>
+  </si>
+  <si>
+    <t>This 85 inch TV is a great addition to my family room.  Great features and seems well built. Overall picture quality is great also. I had forgotten that the Q60A series is edge lit backlight instead of the better full matrix backlight.8/21/21, First review: Within the first 3 days of use, i have noticed some issues with the display that are somewhat annoying and may indicate a problem that might require replacement. See the photos of arcs of banding from the bottom on brighter scenes. On dark scenes, there are light foggy areas. These problems are exactly the same no matter the source, so i'm pretty sure its the display itself.I will provide more updates soon.8/25/21: Update: TV performance is great other than the display issues I described above. I do believe i will have to return it. None of my other TVs have similar issues, so I don't expect it from this one. As great as the picture is, I really hate to have to return it. And I really hope the replacement is much better. More updates to come.9/7/21: Update: Amazon replaced the TV when requested due to the defects i described above. The replacement seems to be much better. I cannot detect any of the ripples, waves, arcs.  There still seems to be some very, very  light foggy areas. They are much less in number and less noticeable. The foggy areas are only noticable when viewing in a dark room with a dark scene. I think this will be a keeper now.</t>
+  </si>
+  <si>
+    <t>1. In order to use YouTube TV you must have a Samsung account. I was unable to get a Samsung account because of a Samsung problem. When I called Samsung support they said it would take six business days to solve!After six business days they didn’t call me, so I called them. They said they couldn’t solve the problem and would escalate it within the company. Another six business days. In the meantime no YouTube TV.After more than another six business days they called me. This is a problem that started last month! They have no concept of customer service.2. At the same time I bought a TCL and Insignia TVs. Their remotes, and hence their software, are far superior to Samsung‘s. I cannot believe how awkward and clunky the Samsung is to select viewing.This is the last Samsung product I will purchase. Poor product, and worse customer service.(The picture quality is very good.)</t>
+  </si>
+  <si>
+    <t>IF YOU WANT A GOOD MIRROR, THIS IS GREAT. NO INSTRUCTION MANUAL, SET UP GUIDE DID NOT WORK. OUR LAST SAMSUNG TV WORKED PERFECT BUT EVENTUALLY FAILED. I LEFT EVERYTHING IN THE OLD TV SO I COULD TRANSFER TO NEW TV. NEW TV DIDN'T HAVE RCA CABLE INPUT FOR DVD PLAYER. TRIED HDMI CABLE, WOULD NOT RECOGNIZE SO WE CAN NOW LONGER USE OUR DVD PLAYER. TRIED CONNECTING OUR ROKU DEVICE, WOULD NOT WORK, TRIED USING OUR LOCAL CABLE, NO WARE TO BE FOUND. ALL WE CAN WATCH IS SAMSUNG TV WITH NONE OF OUR LOCAL CHANNELS.  TRIED USING CELL PHONE TO SCAN CODE BUT IT OFFERED NO ASSISTANCE TO SETTING UP OUR TV ONLY SHOWED ADVERTISEMENTS TO OTHER PRODUCTS. INTERNET SCROLLING IS A JOKE, VERY SLUGGISH AT BEST. UNABLE TO FIND THE DIGITAL MANUAL, IT SAYS TO CLICK "*" BUT THE REMOTE HAS NO "*" BUTTON ON IT. NOW IN THE PROCESS OF TRYING OUT AFTER MARKET REMOTE CONTROLLERS TO SEE IF WE CAN FIX THIS TV. WHAT A DISAPPOINTMENT. THE LIMITED THINGS AVAILABLE DID HAVE GREAT VIDEO THOUGH BUT IN MY OPINION TRY SOMETHING ELSE. IF THERE IS A LOT OF SUN LIGHT IN THE ROOM THEN ALL YOU'LL SEE IS REFLECTIONS LIKE A MIRROR.</t>
+  </si>
+  <si>
+    <t>In my 73 yrs, I have purchased 10-15 samsung tvs and been pleased with their upscale tech without the Sony baaaaad attitude attached. I.e. tech support w/o the "you were so blessed to be able to buy a Sony that now you can go flock yourself" attitude. I shall NEVER buy another.  Samsung now seems to be of the opinion that I do not own the device that I paid for. They incessantly annoy me with their tragically onerous software attempting to control my sound system and destroying my enjoyment of music. Their AI is a moron. Their greed is so sanguine that they seem to want a constant monitor on my listening habits. They are loathsome. Music was not meant ti be constantly disrupted but Samsung seems to desire to destroy in in favor of corporate data gathering. The word is greed. Bye bye Sam.</t>
+  </si>
+  <si>
+    <t>First they only show the 60" picture of this TV.  For the 32" version, the two stands are at the extreme end of the television and point outward toward the edges.  So any kind of table top, nightstand, sound bar, etc. designed (or a good fit for) a 32" TV won't be wide enough for the required base (I couldn't find a single piece of furniture in my house that could fit the corner and hold this TV).I jury rigged a TV stand with some textbooks and turned on the TV.  The first screen was a lady in spoken text telling me to "choose between two simple options" for Phone vs. Manual setup.  THERE WAS NO WAY PAST THIS SCREEN.  It did not recognize speech or accept any of the buttons from the remote (other than the power button).  There was a message to hold down the "volume button" (which isn't really a button it's more of a two way switch) but that did nothing but adjust the TV volume  in a little popup window.So I chucked the stupid remote at the screen and broke it.  Threw the whole thing in the garbage.  The old Samsung 32" were the best you could buy at that size (and maybe still are in terms of picture) but I'll never buy another Samsung TV.</t>
+  </si>
+  <si>
+    <t>I love this tv Samsung added so great features this when I bought a QLED a couple of years ago. No more changing out batteries in the remote, it now charges with wall charger. When plugging things in with HDMI it reads it then powers your device up when you switch to it.DO NOT ATTEMPT TO REMOVE WHAT WOULD LOOK LIKE A FILM PROTECTOR ON THE SCREEN. YOU WILL DESTROY YOUR TV. YOU ARE REMOVING WHAT PROJECTS THE IMAGES.</t>
+  </si>
+  <si>
+    <t>Great TV.  I purchased the 43"QN43Q60TA  and live in a RV.  The TV is 8' in front of me and the volume needs to be at 75 to hear any sports and most programming.  You will need to add a sound bar to the price of this TV for decent sound.Samsung did a really bad job on the audio and doesn't provide sound wattage in their specs.</t>
+  </si>
+  <si>
+    <t>I bought this even though I said I wouldn't buy another Samsung T.V. because all critics raved about the great picture. My 2017 Samsung LCD gives as good a picture as this QLED. Without daily having to spend 90 minutes adjusting picture. Doesn't matter if I'm on same channel or different source, I have to adjust,adjust,adjust. I don't like the people onscreen to look like 1) artificial suntaned (orange) or 2) as if they have jaundice (yellow skin), or the picture to look faded. Eventually I do get a good picture but 90-120 minutes per viewing? The movie or ballgame is almost over! Why does it take daily tweaking? The sound quality is par with the 2017 model EXCEPT when connected to my Aiwa Exos-9 I have to raise the volume to 44 where my 2017 never went to 30. However reception is much better than 2017, Airwave &amp; Wi-Fi. Problems here is unable to get PlutoTV app except by internet search each time (why? I have it on old 2017) and Home quick launch bar full of apps and unable to remove or reassign positions. I would keep for the better reception, but the daily picture adjustments plus everything else...Oh, just to help anyone willing to give it a go, picture mode must be on STANDARD, this gives you more options for "trying" to tone the yellow, orange &amp; green (color spacing). My best success was STANDARD picture, LOW contrast enhancer,  COOL color tone , plus adjust the gamma and shadow detail then color space settings being mindful that pausing the picture to adjust it will not be the same picture you see in motion. Thus this makes my 2017 seem like a plug &amp; play.</t>
+  </si>
+  <si>
+    <t>I’ve read a lot of reviews and I have to agree with the ones that mention the sound and the remote as the not great parts of this TV.The sound:  it’s ok and plenty loud but doesn’t sound as good or as “full” as my old 52” Samsung LCD that I bought in 09. It sounds a little more digital or tinny but it’s not as bad as some reviews say.  Not sure how good of speakers they can squeeze into a TV that is an inch thick so if you want better sound I say look for a sound bar.Remote:  since it doesn’t take batteries I suggest you take it out of the box and charge it while you are getting the TV up on the wall or set up wherever you are putting it so it has juice.  Find a youtube video on the remote because the instructions that are in the box are garbage.  Once you pair the remote with the TV, learn what and how the buttons work it’s not that bad but it would be so much easier if it was already paired with the TV.  I found that my old Samsung TV remote with all the buttons worked perfectly with it so if you have one and want to use it it works just fine.</t>
+  </si>
+  <si>
+    <t>This product was given as a gift and upon setting the TV up the screen is discolored and has horizontal lines throughout the screen. Amazon would not allow for return or replacement through them since by the time it was setup after I gifted it to a friend it was 3 days out of the return time, so now we are trying to go through samsung... samsung said they would contact me wirhin 48hr to arrange for a day for a tech to do an in home repair, three days later nit a word and the TV keeps getting worse. Horrible customer service from both companies.</t>
+  </si>
+  <si>
+    <t>I bought this 32 inch QLED TV to replace an older Samsung TV in my guestroom based on the mainly positive reviews from other Amazon users. The picture quality, after going through the entire menu of available "expert" adjustments, is indeed outstanding. At 100% sharpness, for example, every single hair on a person's head and every single blemish is discernible, but that is not necessarily the ideal adjustment, of course. Similarly, the other optional picture settings all produce the expected results ... a superb, pixel-free image. Sound is a different matter. After pairing this TV with a Samsung soundbar, and having been  unable to control the sound volume with the soundbar remote, I tried the remote provided with this TV.  It, too, would not adjust the sound volume.  I finally solved the problem by using a universal remote from an older Samsung TV. The sound produced by this TV (without the soundbar) is fair, but probably still better than most I've had experience with; with the soundbar it's good.  If anyone has been able to adjust sound volume with the remote provided with this TV, please comment. Thanks!</t>
+  </si>
+  <si>
+    <t>Well first off the remote requires a type C USB cable to charge it. Or I guess I can put it outside while it's still summer to recharge. If you have a Samsung phone then I understand its the same type for the remote. Neighbor gave me the cord plugged it in and could never get the setup menu to work to setup the TV! I'd like to really tell you in more descriptive words how bad this is! But I'll just say I'll be returning the TV back to Amazon for a refund and go to Walmart and get something that works. Your results may be better than mine but that's how this happened to me. Good luck!OH...a solar charged remote.....for an indoor TV!!!!</t>
+  </si>
+  <si>
+    <t>Researched TV's until they started all running together.  Decided on the QLED based on various reviews and first hand comparisons.  Found the picture quality we better and audio was decent.  I have it connected to a surround sound system, so don't use the TV sound much.  I like the auto picture mode so the TV adjusts to the format of the projected video.  As they say, is only as good/strong as its weakest link/part, etc.  With that said, people will be negative about picture quality on older programs/formats.  If the video is 4k / UHD, etc., the quality is crystal clear and excellent.  Delivery was quick and included free in room setup with packing all removed.</t>
+  </si>
+  <si>
+    <t>The actual tv is great..the remote sucks.  No numbers on it, no way to punch in a channel number that you want.  Give me an old fashioned remote..not everyone wants the new fangled things!!!!</t>
+  </si>
+  <si>
+    <t>Was not expecting such a beautiful picture for such a reasonable price. Samsung QLED with HD 4k on this 82" TV is quite fantastic, and you just can't beat the price! I can't even imagine what OLED  8k looks like, but I don't care given the price and quality I have with this unit</t>
+  </si>
+  <si>
+    <t>This TV is in my bedroom and the bedroom is large. About 18 feet from bed viewing to TV wall so I needed a large TV. I am still learning all the bells and whistles. I wish that the controller's “buttons” had more tactile feel to them for easier use in the dark. Maybe it is just a learning curve.The picture is absolutely great, almost 3-D in appearance. Best TV I have ever owned. Paid a little less than $1600 for it.</t>
+  </si>
+  <si>
+    <t>Where should I start with the disappointing purchase of this smart TV.  Start up default is Samsung TV rather than our service provider.  Have to change this everytime we turn on the tv.  Voice commands may work, but we have yet to find out how.  The remote is so streamlined, with less buttons on most remotes that you have to be a tech wizard to find the on screen menu selection you need to change preferences.  Remote doesn't light up so in a dark room you have to use your cell phone to see the few buttons that it actually has.  We purchased a Samsung at the suggestion of our cable provider; however, this tv is so new that we could not get the MLB app on it because according to Samsung they are still negotiating with MLB to have it made available.  Would not recommend this tv.</t>
+  </si>
+  <si>
+    <t>The TV was just as advertised. With a little adjustment, it has a really good picture and we love the new features like the solar powered remote and smart system.But the delivery was TERRIBLE and that is being kind! It took 6 weeks after being originally told it would be 10 days of less. It sat in an NSD terminal in Memphis for close to a month. After a minimum of 10 contacts with Amazon reps, it finally arrived. Amazon should never ship anything with NDS again. The box was heavily damaged...the communication with NSD was close to like talking to the White House of CIA...in other words... they didn't communicate at all. The tracking information was false.I just can not imagine a worse experience with shipping.</t>
+  </si>
+  <si>
+    <t>Unlike smart TVs of yesterday, this model remains completely dumb unless the user consents to the typical pages of user agreements.  As a result the user is forced to access streaming video services through hardware such as ROKU connected to the TV's HDMI input.  It all distills down to:If potential buyer doesn't value privacy then this is a great TV.If Potential buyer values privacy expect this TV to provide nothing more than a great picture.</t>
+  </si>
+  <si>
+    <t>The picture is amazing.  However, you can ONLY use their apps.  There is no feature to allow the addition of apps that are not included.  I hate the remote.  It changes the channel just by breathing on it.  I hate the start page.  Samsung is determined to have you watch their pre installed Samsung TV.  I bought an antenna for local shows and it will not let me add the channels to favorites or scroll the antenna channels.  You cannot find these shows in th TV channel guide either.  ONLY SAMSUNG TV shows.  You cannot change the home page either.  I also have to plug it directly into my modem to get a continuous clear picture.  I have over 100 megs oer second. The speakers are crap.  Bought a sound bar. I will say it easily paired with my bluetooth devices.  I wished I could have sent it back but I threw out the box.  KEEP THE BOX until you decide if you want to keep the TV. OH, once the tv is hung on the wall you cannot get the the ports unless you have a mount that pulls out.  I installed this alone on the wall only to figure out this issue.</t>
+  </si>
+  <si>
+    <t>There are no instruction for the remote. Had to call Samsung to "learn" how to use and charge remote. Remote is solar powered or usb-c charged. Whomever designed the remote has no real world experience, and decided to cut corners. I cannot recommend this TV. Additionally I see a class action law suit against Samsung for non disclosure of not allowing for three digits with cable TV.</t>
+  </si>
+  <si>
+    <t>This is my second unit of this same model. When I first bought it, I was able to control everything on my tv using my Alexa device.  3 weeks in, that went away. My Alexa device couldn’t control anything other than the power and volume right before the first software update. After days and weeks wasted with customer service, I bought a second unit (lost $80 because I wasted time with tech support) thinking I’d have better luck.  Voice control via my Alexa device didn’t work, so I just resigned myself to dealing with it.Now, voice recognition won’t work at all! Not even using the smart things app! The solar charging feature on the remote doesn’t work either! I didn’t purchase a smart tv with theoretic voice control features to go searching for a remote that can’t fully charge after 6 hours in direct sunlight all over the place! I’ve contacted Samsung, they’re sending a new remote but, now they also want me to purchase an extended warranty to get a full refund! I’m not even 4 months into the manufacture’s warranty yet!</t>
+  </si>
+  <si>
+    <t>A HUGE downside to this relatively average TV is that you must sit front and center to get a beautiful picture. Any movement on your part to the left or right, and it fades and changes color and distorts.  So basically...you have to watch TV alone. Others have mentioned this. My old and cheaper TV was better.  For this price, you should be able to get a great picture no matter what part of the room you're watching from. The sound is TERRIBLE.  Sometimes it's blaring loud, then almost silent at other times.  But mostly, you have to turn the volume to near 100, which is not good.</t>
+  </si>
+  <si>
+    <t>1) Easy set up... Just make sure that its in a room apart from other Samsung televisions, or you will "confuse" the remote.2) great picture, bright enough for any well lit room, just like any other Samsung (we have 11 including the office)3) Smart, minimalist number of buttons, on the remotes by Samsung are my preferred over any other brand's approach to controls.4) Clean simple design fits any decor.Bought this to wall mount between kitchen and dining room,  It was the perfect size, lightweight enough for a single point wall bracket, on a 36" arm,  and bright enough to handle our bright, bright kitchen with all the LED lights.Ideal for our application...One "defect" is that the Apple TV app doesn't seem to want to let my log in to my Apple library. Have tried multiple times over several days without success. Though this is less of a problem, since there is an Apple TV device attached to one of the HDMI ports, so the content works, but the app failure is troubling none the less. I've not had this problem with our other Samsung TVs using the Apple TV app.</t>
+  </si>
+  <si>
+    <t>Delivery was excellent but the TV had sound only. Called customer service. They were horrible the girl had no idea what she was talking about, she told me to make sure it was plugged in after I told her we had sound! I hung up called back to get someone else, I hot the same person. Obviously returning. On a good note Target had a better Samsung TV 75” on sale for $869.00.</t>
+  </si>
+  <si>
+    <t>The picture is outstanding (I would expect nothing less from Samsung) and the sound quality for my wall mounted TV is also excellent.  I rated the remote lower because it is really a change from the usual TV remote. Even with that said, it does work well and the voice commands are really a nice change.  The solar (light) charging capability of the remote is a nice touch and appears to work well with little effort on my part. For anyone interested, even though the remote is blue tooth connected, the TV still works with my Logitech Harmony 650 remote.</t>
+  </si>
+  <si>
+    <t>So far, I’m loving this television. Assembly and set up was incredibly straight forward and took me fifteen minutes at the most. I haven’t toyed with the display settings yet, but it is already light years ahead of the tv it replaced (that was 6 years old). I haven’t had any problems with the remote. It has been pretty intuitive to me, but I could see it being an adjustment for others. I was able to add my cable box with ease, and finally no longer have to use two separate remotes. I will update this if it changes, but I’m so glad I didn’t spend the money on a higher level qled. Will it brew my morning coffee or do a song and dance? No, but that’s not what I need.  This one serves its purpose, and is the perfect size.</t>
+  </si>
+  <si>
+    <t>TV delivered by FedEx after their usually missed expectations and deadlines come and gone, but when I drunkenly sent a message of disgust about the missed delivery, I got a prompt response from Walt's TV!  The only fault of Walt's TV was choosing FedEx to deliver their goods, because I have to say that their customer service was outstanding!  The TV has exceptional color and lifelike picture, but the motion does drag a bit at times as expected for a 60 hertz set, but I like it for the price!  If this lasts more than two years it has the Sony that I bought last time beaten!  I took one star off the rating because the initial setup that the TV makes you go through was quite onerous!  All I wanted was a TV to plug my Firestick into and set to HDMI 1, but they make you spend a half hour of your life signing up to Samsung accounts and such.</t>
+  </si>
+  <si>
+    <t>The media could not be loaded.
+   We just installed the television about a week or so ago after having it delivered to our home. It was working flawlessly until today when we noticed what looks like a single vertical line of pixelation (very thin line) running down the center of the tv when playing a few blu rays. No major changes to the settings have been made.I have added screenshots and a video clip showing this behavior and it seems consistent when in the Samsung TV menus as well. The pixelation seems to subside when playing games on the ps4 though in my testing so far.Otherwise the television has been working great, just very disappointed in the sudden issue with the vertical line down the middle of the screen after spending so much on it. Going through the replacement process and will provide updates when available.</t>
+  </si>
+  <si>
+    <t>The first week I had the product I had to reset it to factory default to fix a bunch of bugs; it would turn on by itself, it would randomly open apps, it would jump from what I was watching to a sound wall app, etc. So, I had to go through the entire setup twice which takes about an hour. Then, after two more months, the exact same thing happened again. Apparently Samsung is aware of this problem and is unable to fix it. Unless you have nothing better to do but reset your TV every couple months then this TV is for you.</t>
+  </si>
+  <si>
+    <t>Tried and tried to adjust the picture quality but never got the clarity and detail promised.  I reset to factory specs but the result was more like an old CRT tube.  Blurry details.  Also, when changing channels the picture comes up darker and then becomes bright.  The Samsung I bought 7 years ago is far superior, with excllent detail, but has developed quarter-sized bright spots - hence the desire for a replacement.Many reviews crow about the picture quality.  Does Samsung have a quality problem?  Am returing the TV.</t>
+  </si>
+  <si>
+    <t>I have a top of the line LG OLED that I am in love with. This Samsung QLED rivals the picture for hundreds less. I bought it for the promised wide viewing angle and was not disappointed.I was disappointed by occasional screen flashing where switching from TiVo to cable causes the TV to get confused. I also found that connecting to a Samsung soundbar was more difficult than my LG which was almost automatic.</t>
+  </si>
+  <si>
+    <t>The absolute worst interface on the planet. Loaded with Samsung garbage, difficult to navigate and rendered our Apple remote unusable. Bought two, opened one. Both going back. Pic is great, interface horrid.</t>
+  </si>
+  <si>
+    <t>75 inches of beauty!  This Samsung TV delivers on picture quality.  If you like it has pre arranged settings for movies, gaming etc.  Or you can set to your own liking.  Pictures below are set on just movie setting and still perfectly clear.  Easy to setup if you already have a Samsung account.  Samsung free TV is a nice feature.  Sound quality just out of the TV is great actually.  But I have mine hooked up to my system for even better surround sound.  I do wish they had more HDMI inputs on the back.  Optical input is a great way to get awesome sound.  And for the size it's actually not very heavy but still requires at least 2 people to get in your TV stand.  It has a rather fast response to the controls.  Using Alexa is rather simple.  As for faster processing on the apps you'll notice it.  Going through movies or other online material is pretty quick.  So the processor in this TV sure makes a difference over my old Samsung curved set.It's not a top of the line TV but you'll still be impressed.  I would recommend this TV.</t>
+  </si>
+  <si>
+    <t>We love this TV. Bought TWO 75-inchers. We wall-mounted one and set the other up using all 4 stand-legs. The 75 inch is the smallest size with slots for 4 legs, so you can have a narrow or wide setup to match your TV stand, but it only comes with 2 stand-legs. Buying two 75 inchers let us have each fully supported in its own way.One nice surprise was the sound quality. We aren’t exactly audiophiles, but we were pleasantly surprised with the sound. The TV does faux-surround where the volume is emphasized where the movement is. For example, if a character on the left is speaking, their voice will sound like its coming more from the left. The sound is surely worse on smaller models, but with a TV this large we decided we don’t even need a soundbar.Our only real complaint is that the remote is tiny and awkward to use, but that’s far from a dealbreaker. We are VERY satisfied with this pair of purchases, which we snagged for $1300 and $1100 off Amazon (plus tax). Hard to find better value!</t>
+  </si>
+  <si>
+    <t>This Samsung TV is really nice.  We replaced a smaller set after getting rid of a cabinet that restricted the size.  The smart features have taken some time to get used to.  I'm not too excited about the Samsung TV channels that come up when you are switching between smart features and cable but that may just be me.  If I didn't have cable in my HOA prepaid I might use the Samsung  TV features.  I would like it, if TV manufactures could come up with a way to search without typing in the letters on the screen.  The Alexa Voice search works for some of that and I do use that more and more.  I'm not  sure why some of the other Apps were not all ready built in but they are relatively easy to download and add. I have an older Samsung smart TV. Samsung has worked hard to improve the Smart hub.I wasn't to sure about the remote, but quickly got used to it.  I wish I could have made my Meadiacom remote work with this remote also but was not able to.  I still need two different remotes. The solar feature is really cool. NO more batteries to replace in the remote.</t>
+  </si>
+  <si>
+    <t>This is my first smart TV and I didn't know exactly what to expect. It was super easy to set up with my Galaxy s21 phone. The picture is great. Watched a 4k football game on YouTube TV and didn't notice any issues with ghosting and skipped frames. Upscaling from 1080p is decent, but 720p upscaling isn't that great as there is a ton of residual blocking. You will want a sound bar or some other external sound setup as the TV speakers are very tinny.A little disappointed in the remote, however. Have to push the mic button in order to use the voice features with Alexa. Having a little trouble setting up my Google stuff outside of the YouTube apps. It's probably something on my end as I'm also having trouble with my wifi light bulbs I control with Google home.Overall, I'm very pleased with the purchase and hope samsung will improve the Alexa compatability so I don't have to push the button on the remote to open apps and search the content. I feel like I'm in the Jetsons!</t>
+  </si>
+  <si>
+    <t>This television’s picture is spectacular but the sound is terrible.</t>
+  </si>
+  <si>
+    <t>This TV has a GREAT PICTURE!!! The colors are bright and the black is black not a shade of Gray.  It is truly black.  Dark scenes can be seen even in bright room.TV remote is minimalistic but gets the job done once you read the owners manual.  That is the only bad point on this TV.You must access the Samsung website to print out the 250 page manual.  You can also print portions of it.  however, you must get it through the Samsung site or it is on the TV but it is less easy to move around the manual while it is on the TV screen.  It is better to access the manual through the site.i do like the features of the Smart TV.  They are easy to get but it is difficult to get from the Apps back to the TV picture.</t>
+  </si>
+  <si>
+    <t>This clean clear tv will have you looking at things just to look at the TV!! Very good. You will need a sound bar or some HDMI sound, but I wouldn't let that stop mi one bit. Movie night with the family is a true success every time.</t>
+  </si>
+  <si>
+    <t>Was so excited to get this installed. After setup, we noticed that an entire row of vertical pixels were dead. Depending on the outcome, I may change this review.</t>
+  </si>
+  <si>
+    <t>Love this TV. Honestly, I tried to be intelligent in my decision and try to tell everyone in my household that this was the best of the market at the time. But I really don't understand all the various features of this or comparable units.I will say it is a vast upgrade from my 2011 52" Samsung.And great for gaming. I have PS4 and Switch consoles and the quality is so much better than what I was experiencing.The only maybe downside is the sound quality. But this might be related to various streaming services. I've noticed a huge sound quality difference between Amazon Prime vs. Disney+ vs. HBOMax. Have not yet invested in a soundbar.</t>
+  </si>
+  <si>
+    <t>First one Amazon shipped had been walked on (boot prints visible) and had a hole in front of box that went right through to scratch the screen. Replacement arrived fine. We have an open layout with living room, kitchen, and dining room, and got a Sonos sound bar to go with tv. Definitely was necessary. Tv picture quality has that soap opera effect to it, though I just learned that can be turned off. Family agrees that the Apple TV remote and design are way more user friendly than what Samsung has going on. In some apps, the pause/play button doesn’t do anything at all, and instead you have to use the center button to play… Also somewhat difficult navigating between apps, and they can be slow to open, at times encountering errors. Never have issues with the Apple TV on our 39” on same network on the other hand. I’m sure we’ll get used to it. One great thing is the solar charging remote.</t>
+  </si>
+  <si>
+    <t>First things first check your measurements. I assumed replace a 43in Samsung with a 43in Samsung. Not so this one did not fit my opening too big. Smart features were nice and great picture quality. The sound decent but if you want quality get addition sound equipment. The remote has a learning curve some reading is required.</t>
+  </si>
+  <si>
+    <t>The Samsung picture is excellent. The remote is cheap and I set it up for using my IPhone and IPad to control the TV. There were no instructions on how to set up or pair the TV with the remote and I had to go to YouTube in order to get the instructions to pair. The sound on the TV is not very good and I had to add a sound bar.</t>
+  </si>
+  <si>
+    <t>Older flat TVs used liquid crystal displays, in which each pixel was made by a little LCD pixel covered with a red, green, or blue absorbing dye; colors were not great, and picture quality degraded when viewed from the side.The Samsung QLED actually has a red, green, or blue light-emitting diode at each pixel, which gives vivid, pure colors when viewed from all angles. This is a quantum improvement in TV quality!The sound is also good, and the remote easy to use once one gets used to its peculiar channel and volume buttons. Set-up was difficult, and I had to ask the Spectrum cable technician for help.This TV cost a bit more, but is worth it.</t>
+  </si>
+  <si>
+    <t>Do I want a Samsung account, answer I do not!  Why should I need one answer, I should not!  Does the app have anything to do with Samsung, it does not!Result if you value privacy and want a smart TV look elsewhere.  My LG's (as an example) do not require this, go with LG is my suggestion, or expect to do what I've had to spend time and effort blocking Smasung after installing the app on a firewall (hint Samsung TV's leak a lot!, as I've learned in the progress of blocking it). So I'm not unimpressed with the TV's  image, but compared to older Samsung TV's I have previously owned, I am completely unimpressed with the smart TV requiring a Samsung account to add any apps even ones that have nothing to do with Samsung.</t>
+  </si>
+  <si>
+    <t>As many reviewers have noted, you don't purchase this without having an external speaker - which I do.But ... the interaction between the two is unwieldy, as is the remote control itself.Too many choices in today's world leads to a jam-packed interface - I get that - but this one is clumsily done.So overall - great picturem but lousy tech and poor use of available tech and dismal attempt at making it all user-friendly.</t>
+  </si>
+  <si>
+    <t>This 60” Samsung TV fits perfect on our built-in shelf. Amazon delivered it in record time and within the time frame I chose. The TV was easy to set up and connect to our Roku. The picture is beautiful, sharp and clear. Well worth the price. This is our second Samsung TV that we have purchased from Amazon. We are very happy with both purchases.</t>
+  </si>
+  <si>
+    <t>Awesome tv until you notice the light leaks on screen. No wonder it was a good deal. You get what you pay for.</t>
+  </si>
+  <si>
+    <t>This is a surprisingly good TV, especially at the price it was being offered at.  It was easy to assemble/set up and the picture is great.  The only flaws:  the remote that arrives with it is a high-tech paperweight.  Thankfully, I still have the remote from the previous TV, also a Samsung (a BN59 remote), a classic that still works.The sound for this unit could also be better.  I may start browsing for a sound bar, and the closed captions are a bit iffy on a few channels.All in all, this seems to be a very dependable TV in the short time that I’ve had it, and continue to fiddle with all the settings:  video, network, etc.</t>
+  </si>
+  <si>
+    <t>You have to sign up for a Samsung account to download new apps. It's MY TV! I shouldn't sign over my information and agree to yet another 30 page user agreement just to use all its functionality.Plus just discovered that this model Samsung is not compatible with Sling. So unhappy.</t>
+  </si>
+  <si>
+    <t>I bought this to replace my dumb TV.  While this new TV is the same size as my old one the picture quality is much clearer and the color is more vibrant.  The smart features work flawlessly and the TV paired seamlessly with my reciever.  The smart remote is rechargeable and even has a small solar panel so the light in your room can charge the remote.  I am very pleased with my purchase.</t>
+  </si>
+  <si>
+    <t>Update:Samsung customer service is trash too. Made an appointment with them to repair the TV, got multiple text messages and email confirmation, but no one showed up. I repeat, don’t buy Samsung. Googled it, it’s also common that they don’t show up to scheduled appointments and you need to keep rescheduling until one day, they knock on your door!Original review:Trash. Owned it for 2 months and 2 weeks and now it’s turning itself on and off every second. When I googled it looks like it’s a very common issue with Samsung. Don’t buy it.</t>
+  </si>
+  <si>
+    <t>I just cant believe how samsung dived so horribly from the top to the ugliest low of the quality scale. I had 3 samsung for the last 20 years. Each relatively better than previous . This last one, in addition to lousy remote and illegible e-manual, had the worst picture that even samsung techs could not fix. They just told me to send it back. Done.  So Long samsung.</t>
+  </si>
+  <si>
+    <t>Received the tv picture is beautiful. Found a part missing for the remote and soon will not be able to use it which makes the tv useless after only a month. Attempted to get the missing part but unable to talk to the right person so far. Rethinking what I buy in the future. Called Samsung 3 times to receive help combining the Samsung remote with my cable universal. Was put on death hold and they disconnected the call so need 2 remotes which one won’t work soon. Yes this is the worst thing since shopping with Amazon but an expensive thing. Not a happy customer anymore.</t>
+  </si>
+  <si>
+    <t>Best picture I have ever seen on a 43 inch flat screen.The speakers are poor so I hooked the Samsung 43Q60A to a Samsung sound bar with a remote bass reflex bluetooth speaker and the sound is much better, especially if you play music through a remote source like music saved on your phone or tablet.The smart features work very well, the remote is simple and doesn't need batteries, a nice new solar technology.Best value for "quality" even though it is a little more than other models.HIGHLY recommended.</t>
+  </si>
+  <si>
+    <t>TV has clear and crisp picture... the remote is terribly difficult to learn and use.  We had to program our old Xfinity remote to use it.  It wants to take you through a re-registration of all subscriptions and app password entry (my previous Samsung was plug and play virtually running in under a minute).  The lips to sound has been off since arrival and although it can be reset manually in a few hours it is off again... very annoying at best!  I would not recommend anything about this TV.</t>
+  </si>
+  <si>
+    <t>I thought I am buying a brand what could be wrong in it. But I was so wrong I dislike this television. The worst is the sound. I agree with someone’s review if you have a sound system then only but this or don’t waste your money.</t>
+  </si>
+  <si>
+    <t>I wish it had more inputs/outputs options. For example, I really needed a 3.5mm audio out, but it only has optical out. What this means is that I cant use TV remote to midulate the volume for my external amplified speakers (Pro Media 2.1) which worked fine with a much older Samsung tv. Now I lost this functionality</t>
+  </si>
+  <si>
+    <t>Prior to this tv I had a Toshiba…I purchase this TV because my son bought a Samsung TV and told me to get this for my needs since I am not a gamer like him.  The picture  clarity is amazing…..the color tones are very strong and bright which for me is a bit much but my eyes have gotten used to the brightness in colors and I have turn down the brightness of it so I am loving it</t>
+  </si>
+  <si>
+    <t>We have bought Samsung products off and on for several years.  Most were good to great, others bad to....  When the price was right we jumped of this TV.  I must say there are no regrets so far.  I knew the picture would be good, but after watching it for several hours we noticed that the picture was sharper and clearer than we expected.  IT is so good our 3 year old 50" (another brand) is hiding in shame.  Even the sound is good, not great so a sound bar is better to get the full effect of the show.  (we have an older one, but plan for a new one)</t>
+  </si>
+  <si>
+    <t>The picture is good and the smart features are as expected. But the remote is worthless. The solar cell Smart Remote doesn't charge well. We left our remote in the cabinet for one day and that evening it was dead, leaving no way to control the TV unless you own or purchase a USB-C cable. Operation of the remote is not intuitive; button functions are inconsistent. Control of replay from our DVR is lousy. We contacted Samsung; they simply refused to help.If you buy this TV, order a full-function remote at the same time and toss the solar remote. Or just choose a TV from Sony or LG.</t>
+  </si>
+  <si>
+    <t>Great picture and features. Setup was easy. Note that the remote is USB rechargeable. For some folks the picture may seem to digital. You can make it more movie-like in the Expert settings. The remote is simplified, not like some earlier Samsung remotes were excessively cluttered.</t>
+  </si>
+  <si>
+    <t>What a low price for a great TV!It's mounted on the wall.  The clarity and color are excellent.This smart TV makes use of Netflix and other streaming services very easy.The remote has limited options and takes some time to get used to.</t>
+  </si>
+  <si>
+    <t>Freezes up, changes channel by itself, can't change channel with remote.This is second unit, first had same problems!</t>
+  </si>
+  <si>
+    <t>Had this TV for several months now. Wife and I love it. Setup process for including NETFLIX, HULU, etc is include and made getting this 100% ready for use was 15-20 mintunes tops.Only complaint is the feet are a slightly different shade of black/grey than the rest. Would have been nicer if it matched.Love the rechargeable remote. Wish it was shaped more like their older one thought. Not enough to ding it a star. Great TV.</t>
+  </si>
+  <si>
+    <t>We absolutely love our 70-inch  Samsung TV. It was so easy to set up! I thought for sure it would be complicated but not at all. Movies and games look amazing and the TV automatically sets up the screen for either movies or PS4 (in our case). You can always change the picture quality yourself too. The remote was a bit over our heads but my daughter figured it out in like 2 seconds lol, so no problem! We are very pleased with this purchase!</t>
+  </si>
+  <si>
+    <t>This is a replacement for my 2019 QLED Samsung 65in model whose picture failed. Until intermittent blackouts occurred, it was terrific. I upgraded for my replacement. This 2021 QN75Q60A 75in is even more impressive than the last. Great pic, sound, amazing. My choice of another Samsung QLED was borne out by my latest issue of Consumer Reports which made this model a top rated "Smart Buy". No weaknesses in any category.</t>
+  </si>
+  <si>
+    <t>I bought the 60 in. size of this TV mainly because 65 in. was too large for my entertainment center.  This TV has a great picture but due to the 60 hertz refresh rate, the "smoothing" of sports action like football is lacking.  If you like Samsung and watch a lot of sports, then I would recommend purchasing the next class up which has the 120 hertz refresh rate - can't say how much better it will be but I would start there.  For movies and regular television viewing, this is a phenomenal piece of equipment.</t>
   </si>
   <si>
     <t>The media could not be loaded.</t>
   </si>
   <si>
-    <t>Very happy with this purchase. Awesome picture and great price.</t>
-  </si>
-  <si>
-    <t>Amazing picture quality!  So many many features already in the system. Love LG products.</t>
-  </si>
-  <si>
-    <t>Wonderful new addition to the MBR.</t>
-  </si>
-  <si>
-    <t>Delivered with the screen cracked X2 Flats . Still have yet to receive my refund for either.</t>
-  </si>
-  <si>
-    <t>LG quality is great. Picture looks really nice definitely recommend.</t>
-  </si>
-  <si>
-    <t>It was delivered broken.</t>
-  </si>
-  <si>
-    <t>Beautiful and excellent performance...thank you amazon</t>
-  </si>
-  <si>
-    <t>Nice tv</t>
-  </si>
-  <si>
-    <t>You can't go wrong with LG! I use to only buy Samsung.  My last two televisions have been LG.</t>
-  </si>
-  <si>
-    <t>Easy set up and great picture.</t>
-  </si>
-  <si>
-    <t>All the bells and whistles at a great price!!! Excellent picture and clarity</t>
-  </si>
-  <si>
-    <t>Screen is too reflective - lamps and windows are easily noticed - annoying.  Does not have deep blacks.</t>
+    <t>Bought this TV as a gift for my granddaughter's new apartment. Wow, what a great TV! Now I wish I had one.  Arrived quickly, set up easily, and has far more features than I realized. Picture quickly is superb. I recommend highly.</t>
+  </si>
+  <si>
+    <t>Great picture but you will be bombarded by ads. I would not buy this product again.</t>
+  </si>
+  <si>
+    <t>I bought the 55”. Very disappointed in this tv. My 10 year old Samsung has a better picture. Further, specifications say it has 3 hdmi ports. It only has 2. I confirmed this with Samsung. Would not have bought tv with only 2 hdmi ports.</t>
+  </si>
+  <si>
+    <t>The media could not be loaded.
+   I love this TV</t>
   </si>
 </sst>
 </file>
@@ -1251,13 +1275,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1265,13 +1289,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1279,13 +1303,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1293,13 +1317,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1307,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1321,13 +1345,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1335,13 +1359,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1349,13 +1373,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1363,13 +1387,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1377,13 +1401,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1391,13 +1415,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1405,13 +1429,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1419,13 +1443,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1433,13 +1457,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1447,13 +1471,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1461,13 +1485,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1475,13 +1499,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1489,13 +1513,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1503,13 +1527,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1517,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1531,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1545,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1559,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1573,13 +1597,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1587,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1601,13 +1625,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1615,13 +1639,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1629,13 +1653,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1643,13 +1667,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1657,13 +1681,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1671,13 +1695,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1685,13 +1709,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1699,13 +1723,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1713,13 +1737,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1727,13 +1751,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1741,13 +1765,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1755,13 +1779,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1769,13 +1793,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1783,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1797,13 +1821,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1811,13 +1835,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1825,13 +1849,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1839,13 +1863,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1853,13 +1877,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1867,13 +1891,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1881,13 +1905,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1895,13 +1919,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1909,13 +1933,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1923,13 +1947,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1937,13 +1961,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1951,13 +1975,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1965,13 +1989,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1979,13 +2003,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1993,13 +2017,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2007,13 +2031,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2021,13 +2045,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2035,13 +2059,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2049,13 +2073,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2063,13 +2087,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2077,13 +2101,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2091,13 +2115,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2105,13 +2129,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>247</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2119,13 +2143,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2133,13 +2157,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2147,13 +2171,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2161,13 +2185,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2175,13 +2199,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2189,13 +2213,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D69" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2203,13 +2227,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2220,10 +2244,10 @@
         <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2231,13 +2255,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2245,13 +2269,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2259,13 +2283,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2273,13 +2297,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2287,13 +2311,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2301,13 +2325,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D77" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2315,13 +2339,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2329,13 +2353,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2343,13 +2367,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2357,13 +2381,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>83</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2371,13 +2395,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2385,13 +2409,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2399,13 +2423,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2413,13 +2437,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2427,13 +2451,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2441,10 +2465,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+      <c r="D87" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2452,13 +2479,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2466,13 +2493,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2480,13 +2507,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2494,13 +2521,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D91" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2508,13 +2535,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2522,13 +2549,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D93" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2536,13 +2563,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D94" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2550,97 +2577,97 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D100" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D101" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
